--- a/Other/狗粮计算-挖矿.xlsx
+++ b/Other/狗粮计算-挖矿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vesugier\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116D7392-AFCD-4437-9E5A-2389C5A8A7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFA014B-6346-443A-B1E3-CE2AD5E370E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="89">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -688,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -760,6 +760,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1111,6 +1114,12 @@
                 <c:pt idx="21">
                   <c:v>44709</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>44721</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44723</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1187,10 +1196,10 @@
                   <c:v>71400</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>67620</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>65940</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -1402,6 +1411,12 @@
                 <c:pt idx="21">
                   <c:v>44709</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>44721</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44723</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1475,10 +1490,10 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -2598,6 +2613,43 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="4">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{D3C16503-2DD4-4CF6-B21F-702AB871C1DC}">
+  <we:reference id="wa104380862" version="1.5.0.0" store="zh-CN" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104380862" version="1.5.0.0" store="WA104380862" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{61567691-F30C-4636-9659-3E1AEA167A00}">
+  <we:reference id="wa104381026" version="1.2.0.0" store="zh-CN" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104381026" version="1.2.0.0" store="WA104381026" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="insertIntoSheet" value="&quot;狗粮&quot;"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
@@ -2605,90 +2657,93 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="6" width="9" style="10"/>
+    <col min="2" max="4" width="9" style="10"/>
+    <col min="5" max="5" width="5.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="10"/>
     <col min="7" max="7" width="9.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="21" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="8" max="8" width="9.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="47" t="str">
+      <c r="O1" s="48" t="str">
         <f>COUNTIF(G:G,"&gt;0")&amp;"趟"</f>
-        <v>21趟</v>
-      </c>
-      <c r="P1" s="47" t="s">
+        <v>23趟</v>
+      </c>
+      <c r="P1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="W1" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="46"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="12" t="s">
         <v>5</v>
       </c>
@@ -2698,11 +2753,11 @@
       <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
       <c r="R2" s="22" t="s">
         <v>5</v>
       </c>
@@ -2712,7 +2767,7 @@
       <c r="T2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="47"/>
+      <c r="U2" s="48"/>
       <c r="W2" s="12" t="s">
         <v>63</v>
       </c>
@@ -2847,27 +2902,27 @@
       </c>
       <c r="P4" s="30">
         <f>AVERAGEIFS(G:G,G:G,"&lt;&gt;0",M:M,"×")</f>
-        <v>22.894736842105264</v>
+        <v>22.904761904761905</v>
       </c>
       <c r="Q4" s="31">
         <f>AVERAGEIF(F:F,"&lt;&gt;0")</f>
-        <v>109.8</v>
+        <v>111.16666666666667</v>
       </c>
       <c r="R4" s="31">
         <f>AVERAGEIF(I:I,"&lt;&gt;0")</f>
-        <v>23.636363636363637</v>
+        <v>23.875</v>
       </c>
       <c r="S4" s="31">
         <f>AVERAGEIF(J:J,"&lt;&gt;0")</f>
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="T4" s="31">
         <f>AVERAGEIF(K:K,"&lt;&gt;0")</f>
-        <v>123.63636363636364</v>
+        <v>124.375</v>
       </c>
       <c r="U4" s="31">
         <f>AVERAGEIF(L:L,"&gt;55000")</f>
-        <v>63084</v>
+        <v>63420</v>
       </c>
       <c r="W4" s="25" t="s">
         <v>65</v>
@@ -4091,52 +4146,86 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="A25" s="4">
+        <v>44721</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.22638888888888889</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.24374999999999999</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="7">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7">
+        <v>118</v>
+      </c>
       <c r="G25" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H25" s="8"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="I25" s="7">
+        <v>27</v>
+      </c>
+      <c r="J25" s="7">
+        <v>107</v>
+      </c>
       <c r="K25" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="L25" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>67620</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="A26" s="4">
+        <v>44723</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.19722222222222222</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="7">
+        <v>12</v>
+      </c>
+      <c r="F26" s="7">
+        <v>118</v>
+      </c>
       <c r="G26" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>26</v>
+      </c>
+      <c r="J26" s="7">
+        <v>105</v>
+      </c>
       <c r="K26" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="L26" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>65940</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>12</v>
@@ -4396,13 +4485,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF2EB8A-397E-46AB-B5B1-3CDF8711B3AF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N34" sqref="N34"/>
+      <selection pane="bottomRight" activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4415,56 +4504,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="43" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="40" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="50" t="s">
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="52"/>
-      <c r="T1" s="50" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="53"/>
+      <c r="T1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="53"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="57"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="12" t="s">
         <v>17</v>
       </c>
@@ -4504,14 +4593,14 @@
       <c r="R2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="61"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="62"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="48">
+      <c r="A3" s="49">
         <v>44679</v>
       </c>
       <c r="B3" s="5"/>
@@ -4553,17 +4642,17 @@
       <c r="T3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="40" t="s">
+      <c r="U3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
       <c r="X3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6">
@@ -4621,19 +4710,19 @@
         <f t="array" ref="T4">MIN(IF(D:D&gt;0,D:D))</f>
         <v>20</v>
       </c>
-      <c r="U4" s="62">
+      <c r="U4" s="63">
         <f>AVERAGEIF(D:D,"&lt;&gt;0")</f>
-        <v>28.310344827586206</v>
-      </c>
-      <c r="V4" s="63"/>
-      <c r="W4" s="64"/>
+        <v>28.3125</v>
+      </c>
+      <c r="V4" s="64"/>
+      <c r="W4" s="65"/>
       <c r="X4" s="14">
         <f>MAX(D:D)</f>
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="5">
         <v>4.5833333333333337E-2</v>
       </c>
@@ -4692,16 +4781,16 @@
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="T5" s="50" t="s">
+      <c r="T5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="53"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="5">
         <v>0.36458333333333331</v>
       </c>
@@ -4759,14 +4848,14 @@
         <f t="shared" si="1"/>
         <v>297</v>
       </c>
-      <c r="T6" s="59"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="61"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="62"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="5">
         <v>0.3972222222222222</v>
       </c>
@@ -4841,7 +4930,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="5">
         <v>0.59375</v>
       </c>
@@ -4901,27 +4990,27 @@
       </c>
       <c r="T8" s="15">
         <f>AVERAGEIF(N:N,"&lt;&gt;0")</f>
-        <v>25.766666666666666</v>
+        <v>26.151515151515152</v>
       </c>
       <c r="U8" s="15">
         <f>AVERAGEIF(O:O,"&lt;&gt;0")</f>
-        <v>178.2</v>
+        <v>178.66666666666666</v>
       </c>
       <c r="V8" s="10">
         <f>AVERAGEIF(P:P,"&lt;&gt;0")</f>
-        <v>23.933333333333334</v>
+        <v>24.575757575757574</v>
       </c>
       <c r="W8" s="15">
         <f>AVERAGEIF(Q:Q,"&lt;&gt;0")</f>
-        <v>100</v>
+        <v>100.15151515151516</v>
       </c>
       <c r="X8" s="7">
         <f>AVERAGEIF(R:R,"&lt;&gt;0")</f>
-        <v>327.9</v>
+        <v>329.54545454545456</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="5">
         <v>0.9375</v>
       </c>
@@ -4979,16 +5068,16 @@
         <f t="shared" si="1"/>
         <v>318</v>
       </c>
-      <c r="T9" s="53" t="s">
+      <c r="T9" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="56"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="5">
         <v>0.9604166666666667</v>
       </c>
@@ -5063,7 +5152,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="5">
         <v>0.98125000000000007</v>
       </c>
@@ -5123,7 +5212,7 @@
       </c>
       <c r="T11" s="7">
         <f>AVERAGEIF(E:E,T10,R:R)</f>
-        <v>333.66666666666669</v>
+        <v>335.42857142857144</v>
       </c>
       <c r="U11" s="7">
         <f>AVERAGEIF(E:E,U10,R:R)</f>
@@ -5131,7 +5220,7 @@
       </c>
       <c r="V11" s="7">
         <f>AVERAGEIF(E:E,V10,R:R)</f>
-        <v>321.625</v>
+        <v>321.44444444444446</v>
       </c>
       <c r="W11" s="7">
         <f>AVERAGEIF(E:E,W10,R:R)</f>
@@ -5139,11 +5228,11 @@
       </c>
       <c r="X11" s="7">
         <f>AVERAGEIF(E:E,X10,R:R)</f>
-        <v>352</v>
+        <v>355.33333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="49">
         <v>44680</v>
       </c>
       <c r="B12" s="5">
@@ -5203,16 +5292,16 @@
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
-      <c r="T12" s="40" t="s">
+      <c r="T12" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="5">
         <v>0.98749999999999993</v>
       </c>
@@ -5270,11 +5359,11 @@
         <f t="shared" si="1"/>
         <v>318</v>
       </c>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -5416,7 +5505,7 @@
       </c>
       <c r="T15" s="7">
         <f>COUNTIF(E:E,T14)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U15" s="7">
         <f>COUNTIF(E:E,U14)</f>
@@ -5424,7 +5513,7 @@
       </c>
       <c r="V15" s="7">
         <f>COUNTIF(E:E,V14)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W15" s="7">
         <f>COUNTIF(E:E,W14)</f>
@@ -5432,11 +5521,11 @@
       </c>
       <c r="X15" s="7">
         <f>COUNTIF(E:E,X14)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="48">
+      <c r="A16" s="49">
         <v>44685</v>
       </c>
       <c r="B16" s="5">
@@ -5498,27 +5587,27 @@
       </c>
       <c r="T16" s="16">
         <f>T15/SUM(T15:X15)</f>
-        <v>0.2</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="U16" s="16">
         <f>U15/SUM(T15:X15)</f>
-        <v>0.26666666666666666</v>
+        <v>0.24242424242424243</v>
       </c>
       <c r="V16" s="16">
         <f>V15/SUM(T15:X15)</f>
-        <v>0.26666666666666666</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="W16" s="16">
         <f>W15/SUM(T15:X15)</f>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="X16" s="16">
         <f>X15/SUM(T15:X15)</f>
-        <v>0.16666666666666666</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="5">
         <v>0.84722222222222221</v>
       </c>
@@ -5576,16 +5665,16 @@
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="T17" s="53" t="s">
+      <c r="T17" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="56"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="48">
+      <c r="A18" s="49">
         <v>44686</v>
       </c>
       <c r="B18" s="5">
@@ -5660,7 +5749,7 @@
       <c r="X18" s="11"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="5">
         <v>0.88402777777777775</v>
       </c>
@@ -5720,24 +5809,24 @@
       </c>
       <c r="T19" s="15">
         <f>LOOKUP(9E+307,F:F)+LOOKUP(9E+307,J:J)</f>
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="U19" s="15">
         <f>LOOKUP(9E+307,G:G)+LOOKUP(9E+307,K:K)</f>
-        <v>4827</v>
+        <v>4543</v>
       </c>
       <c r="V19" s="15">
         <f>LOOKUP(9E+307,H:H)+LOOKUP(9E+307,L:L)</f>
-        <v>1399</v>
+        <v>1496</v>
       </c>
       <c r="W19" s="15">
         <f>LOOKUP(9E+307,I:I)+LOOKUP(9E+307,M:M)</f>
-        <v>5073</v>
+        <v>5416</v>
       </c>
       <c r="X19" s="18"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="5">
         <v>0.90486111111111101</v>
       </c>
@@ -5796,8 +5885,8 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
+    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="49">
         <v>44688</v>
       </c>
       <c r="B21" s="5">
@@ -5858,8 +5947,8 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
       <c r="B22" s="5">
         <v>0.41388888888888892</v>
       </c>
@@ -5918,8 +6007,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="50"/>
       <c r="B23" s="5">
         <v>0.93541666666666667</v>
       </c>
@@ -5978,8 +6067,8 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="48">
+    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49">
         <v>44689</v>
       </c>
       <c r="B24" s="5">
@@ -6041,8 +6130,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="50"/>
       <c r="B25" s="5">
         <v>0.8979166666666667</v>
       </c>
@@ -6102,8 +6191,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="48">
+    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="49">
         <v>44690</v>
       </c>
       <c r="B26" s="5">
@@ -6164,8 +6253,8 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="50"/>
       <c r="B27" s="5">
         <v>0.8256944444444444</v>
       </c>
@@ -6227,8 +6316,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="48">
+    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="49">
         <v>44691</v>
       </c>
       <c r="B28" s="5">
@@ -6289,8 +6378,8 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
       <c r="B29" s="5">
         <v>0.9472222222222223</v>
       </c>
@@ -6345,8 +6434,8 @@
         <v>372</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="48">
+    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="49">
         <v>44693</v>
       </c>
       <c r="B30" s="5">
@@ -6407,8 +6496,8 @@
         <v>344</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
       <c r="B31" s="5">
         <v>0.81874999999999998</v>
       </c>
@@ -6467,7 +6556,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>44705</v>
       </c>
@@ -6529,7 +6618,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>44711</v>
       </c>
@@ -6559,16 +6648,16 @@
         <v>5123</v>
       </c>
       <c r="J33" s="7">
-        <v>-124</v>
+        <v>-133</v>
       </c>
       <c r="K33" s="7">
-        <v>-335</v>
+        <v>-775</v>
       </c>
       <c r="L33" s="7">
         <v>0</v>
       </c>
       <c r="M33" s="7">
-        <v>-50</v>
+        <v>-23</v>
       </c>
       <c r="N33" s="8">
         <f t="shared" si="2"/>
@@ -6592,117 +6681,189 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="4">
+        <v>44720</v>
+      </c>
+      <c r="B34" s="5">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="C34" s="5">
+        <v>4.9305555555555554E-2</v>
+      </c>
       <c r="D34" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="8" t="str">
+        <v>28</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="7">
+        <v>304</v>
+      </c>
+      <c r="G34" s="7">
+        <v>4570</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1430</v>
+      </c>
+      <c r="I34" s="7">
+        <v>5205</v>
+      </c>
+      <c r="J34" s="7">
+        <v>-4</v>
+      </c>
+      <c r="K34" s="7">
+        <v>-65</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <v>6</v>
+      </c>
+      <c r="N34" s="8">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O34" s="7" t="str">
+        <v>27</v>
+      </c>
+      <c r="O34" s="7">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P34" s="7" t="str">
+        <v>183</v>
+      </c>
+      <c r="P34" s="7">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q34" s="7" t="str">
+        <v>31</v>
+      </c>
+      <c r="Q34" s="7">
         <f t="shared" si="5"/>
-        <v/>
+        <v>105</v>
       </c>
       <c r="R34" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="4">
+        <v>44722</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.54861111111111105</v>
+      </c>
       <c r="D35" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="7">
+        <v>330</v>
+      </c>
+      <c r="G35" s="7">
+        <v>4686</v>
+      </c>
+      <c r="H35" s="7">
+        <v>1458</v>
+      </c>
+      <c r="I35" s="7">
+        <v>5292</v>
+      </c>
+      <c r="J35" s="7">
+        <v>-96</v>
+      </c>
+      <c r="K35" s="7">
+        <v>-190</v>
+      </c>
+      <c r="L35" s="7">
+        <v>2</v>
+      </c>
+      <c r="M35" s="7">
+        <v>5</v>
+      </c>
       <c r="N35" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O35" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="P35" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Q35" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="R35" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="4">
+        <v>44726</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.81666666666666676</v>
+      </c>
       <c r="D36" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="7">
+        <v>267</v>
+      </c>
+      <c r="G36" s="7">
+        <v>4682</v>
+      </c>
+      <c r="H36" s="7">
+        <v>1494</v>
+      </c>
+      <c r="I36" s="7">
+        <v>5416</v>
+      </c>
+      <c r="J36" s="7">
+        <v>99</v>
+      </c>
+      <c r="K36" s="7">
+        <v>-139</v>
+      </c>
+      <c r="L36" s="7">
+        <v>2</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
       <c r="N36" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O36" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="P36" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q36" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="R36" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -6722,24 +6883,822 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
-      <c r="N37" s="8">
+      <c r="N37" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="7">
+        <v/>
+      </c>
+      <c r="O37" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="7">
+        <v/>
+      </c>
+      <c r="P37" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="7">
+        <v/>
+      </c>
+      <c r="Q37" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="R37" s="7">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6">
+        <f t="shared" ref="D38:D58" si="6">HOUR(SUM(C38-B38))*60+MINUTE(SUM(C38-B38))</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="8">
+        <f t="shared" ref="N38:N58" si="7">IF(SUM(F38-F37-J37)&lt;0,"",SUM(F38-F37-J37))</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <f t="shared" ref="O38:O58" si="8">IF(SUM(G38-G37-K37)&lt;0,"",SUM(G38-G37-K37))</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="7">
+        <f t="shared" ref="P38:P58" si="9">IF(SUM(H38-H37-L37)&lt;0,"",SUM(H38-H37-L37))</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="7">
+        <f t="shared" ref="Q38:Q58" si="10">IF(SUM(I38-I37-M37)&lt;0,"",SUM(I38-I37-M37))</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="7">
+        <f t="shared" ref="R38:R58" si="11">SUM(N38,O38,Q38,P38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="40"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="40"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="40"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="40"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="40"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="40"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="40"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="40"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="40"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="40"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="7">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6780,7 +7739,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E36" xr:uid="{EC266FC0-548B-4684-99B0-29E6902F9D13}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E36 E38 E40 E42 E44 E46 E48 E50 E52 E54 E56 E58" xr:uid="{EC266FC0-548B-4684-99B0-29E6902F9D13}">
       <formula1>"鸣神岛,神无冢,八酝岛,海祇岛,清籁岛"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6794,11 +7753,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFBCF39-BB4C-47DB-8068-B14EA7E51C6D}">
-  <dimension ref="A1:S95"/>
+  <dimension ref="A1:S114"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P68" sqref="P68"/>
+      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6819,39 +7778,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="53" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="50" t="s">
+      <c r="H1" s="55"/>
+      <c r="I1" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="3" t="s">
         <v>43</v>
       </c>
@@ -6885,7 +7844,7 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D61" si="0">HOUR(SUM(C3-B3))*60+MINUTE(SUM(C3-B3))</f>
+        <f t="shared" ref="D3:D92" si="0">HOUR(SUM(C3-B3))*60+MINUTE(SUM(C3-B3))</f>
         <v>36</v>
       </c>
       <c r="E3" s="7"/>
@@ -6910,7 +7869,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65">
+      <c r="A4" s="66">
         <v>44693</v>
       </c>
       <c r="B4" s="5">
@@ -6945,7 +7904,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="5">
         <v>0.64652777777777781</v>
       </c>
@@ -6982,7 +7941,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="5">
         <v>0.7583333333333333</v>
       </c>
@@ -7019,7 +7978,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65">
+      <c r="A7" s="66">
         <v>44694</v>
       </c>
       <c r="B7" s="5">
@@ -7054,7 +8013,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="5">
         <v>0.29930555555555555</v>
       </c>
@@ -7091,7 +8050,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="5">
         <v>0.69236111111111109</v>
       </c>
@@ -7128,7 +8087,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65">
+      <c r="A10" s="66">
         <v>44695</v>
       </c>
       <c r="B10" s="5">
@@ -7167,7 +8126,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="5">
         <v>0.3347222222222222</v>
       </c>
@@ -7204,7 +8163,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="5">
         <v>0.79027777777777775</v>
       </c>
@@ -7241,7 +8200,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65">
+      <c r="A13" s="66">
         <v>44696</v>
       </c>
       <c r="B13" s="5">
@@ -7280,7 +8239,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="5">
         <v>0.42222222222222222</v>
       </c>
@@ -7317,7 +8276,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="5">
         <v>0.45833333333333331</v>
       </c>
@@ -7354,7 +8313,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="5">
         <v>0.96250000000000002</v>
       </c>
@@ -7422,7 +8381,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65">
+      <c r="A18" s="66">
         <v>44698</v>
       </c>
       <c r="B18" s="5">
@@ -7461,7 +8420,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="5">
         <v>8.2638888888888887E-2</v>
       </c>
@@ -7498,7 +8457,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="5">
         <v>0.19722222222222222</v>
       </c>
@@ -7535,7 +8494,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="5">
         <v>0.27708333333333335</v>
       </c>
@@ -7572,7 +8531,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="5">
         <v>0.43958333333333338</v>
       </c>
@@ -7609,7 +8568,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65">
+      <c r="A23" s="66">
         <v>44699</v>
       </c>
       <c r="B23" s="5">
@@ -7648,7 +8607,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="5">
         <v>0.98263888888888884</v>
       </c>
@@ -7685,7 +8644,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="65">
+      <c r="A25" s="66">
         <v>44700</v>
       </c>
       <c r="B25" s="5">
@@ -7724,7 +8683,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="5">
         <v>0.16944444444444443</v>
       </c>
@@ -7761,7 +8720,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="5">
         <v>0.38958333333333334</v>
       </c>
@@ -7801,7 +8760,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="5">
         <v>0.43958333333333338</v>
       </c>
@@ -7838,7 +8797,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="65">
+      <c r="A29" s="66">
         <v>44701</v>
       </c>
       <c r="B29" s="5">
@@ -7877,7 +8836,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="5">
         <v>0.89513888888888893</v>
       </c>
@@ -7914,7 +8873,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="5">
         <v>0.92638888888888893</v>
       </c>
@@ -7951,7 +8910,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65">
+      <c r="A32" s="66">
         <v>44703</v>
       </c>
       <c r="B32" s="5">
@@ -7990,7 +8949,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="5">
         <v>0.34791666666666665</v>
       </c>
@@ -8027,7 +8986,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="5">
         <v>0.38750000000000001</v>
       </c>
@@ -8064,7 +9023,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="5">
         <v>0.9458333333333333</v>
       </c>
@@ -8093,7 +9052,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48">
+      <c r="A36" s="49">
         <v>44704</v>
       </c>
       <c r="B36" s="5">
@@ -8132,7 +9091,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="5">
         <v>0.35625000000000001</v>
       </c>
@@ -8169,7 +9128,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="5">
         <v>0.90069444444444446</v>
       </c>
@@ -8206,7 +9165,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48">
+      <c r="A39" s="49">
         <v>44705</v>
       </c>
       <c r="B39" s="5">
@@ -8245,7 +9204,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="5">
         <v>0.23055555555555554</v>
       </c>
@@ -8282,7 +9241,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="5">
         <v>0.29375000000000001</v>
       </c>
@@ -8319,7 +9278,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48">
+      <c r="A42" s="49">
         <v>44706</v>
       </c>
       <c r="B42" s="5">
@@ -8358,7 +9317,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="5">
         <v>0.20277777777777781</v>
       </c>
@@ -8395,7 +9354,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48">
+      <c r="A44" s="49">
         <v>44707</v>
       </c>
       <c r="B44" s="5">
@@ -8434,7 +9393,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="5">
         <v>0.17430555555555557</v>
       </c>
@@ -8471,7 +9430,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="5">
         <v>0.20972222222222223</v>
       </c>
@@ -8508,7 +9467,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="5">
         <v>0.90347222222222223</v>
       </c>
@@ -8545,7 +9504,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="48">
+      <c r="A48" s="49">
         <v>44708</v>
       </c>
       <c r="B48" s="5">
@@ -8583,8 +9542,8 @@
         <v>54795</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="59"/>
       <c r="B49" s="5">
         <v>0.51874999999999993</v>
       </c>
@@ -8620,8 +9579,8 @@
         <v>73758</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="50"/>
       <c r="B50" s="5">
         <v>0.9</v>
       </c>
@@ -8657,8 +9616,8 @@
         <v>67763</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="48">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="49">
         <v>44709</v>
       </c>
       <c r="B51" s="5">
@@ -8696,8 +9655,8 @@
         <v>60148</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="50"/>
       <c r="B52" s="5">
         <v>0.87847222222222221</v>
       </c>
@@ -8733,7 +9692,7 @@
         <v>63707</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>44710</v>
       </c>
@@ -8772,8 +9731,8 @@
         <v>61299</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="48">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="49">
         <v>44711</v>
       </c>
       <c r="B54" s="5">
@@ -8810,25 +9769,9 @@
         <f t="shared" si="6"/>
         <v>61754</v>
       </c>
-      <c r="M54" s="41" t="str">
-        <f>COUNTIF(D:D,"&gt;0")&amp;"场"</f>
-        <v>59场</v>
-      </c>
-      <c r="N54" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O54" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="R54" s="68"/>
-      <c r="S54" s="67"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="59"/>
       <c r="B55" s="5">
         <v>0.24305555555555555</v>
       </c>
@@ -8863,26 +9806,9 @@
         <f t="shared" si="6"/>
         <v>51414</v>
       </c>
-      <c r="M55" s="42"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="P55" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q55" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R55" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="S55" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="50"/>
       <c r="B56" s="5">
         <v>0.28680555555555554</v>
       </c>
@@ -8917,36 +9843,9 @@
         <f t="shared" si="6"/>
         <v>65901</v>
       </c>
-      <c r="M56" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="N56" s="28" cm="1">
-        <f t="array" ref="N56">MIN(IF(D:D&gt;0,D:D))</f>
-        <v>23</v>
-      </c>
-      <c r="O56" s="29" cm="1">
-        <f t="array" ref="O56">MAX(IF(G:G&gt;0,G:G))</f>
-        <v>7</v>
-      </c>
-      <c r="P56" s="29" cm="1">
-        <f t="array" ref="P56">MAX(IF(H:H&gt;0,H:H))</f>
-        <v>18</v>
-      </c>
-      <c r="Q56" s="29" cm="1">
-        <f t="array" ref="Q56">MAX(IF(I:I&gt;0,I:I))</f>
-        <v>43596</v>
-      </c>
-      <c r="R56" s="29" cm="1">
-        <f t="array" ref="R56">MAX(IF(J:J&gt;0,J:J))</f>
-        <v>40320</v>
-      </c>
-      <c r="S56" s="29" cm="1">
-        <f t="array" ref="S56">MAX(IF(K:K&gt;0,K:K))</f>
-        <v>82032</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="48">
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="49">
         <v>44712</v>
       </c>
       <c r="B57" s="5">
@@ -8983,36 +9882,9 @@
         <f t="shared" si="6"/>
         <v>63756</v>
       </c>
-      <c r="M57" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="N57" s="30">
-        <f>AVERAGEIF(D:D,"&lt;&gt;0")</f>
-        <v>36.084745762711862</v>
-      </c>
-      <c r="O57" s="31">
-        <f>AVERAGEIF(G:G,"&lt;&gt;0")</f>
-        <v>2.7678571428571428</v>
-      </c>
-      <c r="P57" s="31">
-        <f>AVERAGEIF(H:H,"&lt;&gt;0")</f>
-        <v>10.350877192982455</v>
-      </c>
-      <c r="Q57" s="31">
-        <f>AVERAGEIF(I:I,"&lt;&gt;0")</f>
-        <v>40856.018518518518</v>
-      </c>
-      <c r="R57" s="31">
-        <f>AVERAGEIF(J:J,"&lt;&gt;0")</f>
-        <v>19894.736842105263</v>
-      </c>
-      <c r="S57" s="31">
-        <f>AVERAGEIF(K:K,"&gt;30000")</f>
-        <v>60829.351851851854</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="50"/>
       <c r="B58" s="5">
         <v>0.9458333333333333</v>
       </c>
@@ -9047,36 +9919,9 @@
         <f t="shared" si="6"/>
         <v>58444</v>
       </c>
-      <c r="M58" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="N58" s="32">
-        <f>MAX(D:D)</f>
-        <v>52</v>
-      </c>
-      <c r="O58" s="33" cm="1">
-        <f t="array" ref="O58">MIN(IF(G:G&gt;0,G:G))</f>
-        <v>1</v>
-      </c>
-      <c r="P58" s="33" cm="1">
-        <f t="array" ref="P58">MIN(IF(H:H&gt;0,H:H))</f>
-        <v>4</v>
-      </c>
-      <c r="Q58" s="33" cm="1">
-        <f t="array" ref="Q58">MIN(IF(I:I&gt;0,I:I))</f>
-        <v>38042</v>
-      </c>
-      <c r="R58" s="33" cm="1">
-        <f t="array" ref="R58">MIN(IF(J:J&gt;0,J:J))</f>
-        <v>10080</v>
-      </c>
-      <c r="S58" s="33" cm="1">
-        <f t="array" ref="S58">MIN(IF(K:K&gt;30000,K:K))</f>
-        <v>51414</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="48">
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="49">
         <v>44713</v>
       </c>
       <c r="B59" s="5">
@@ -9114,8 +9959,8 @@
         <v>76762</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="59"/>
       <c r="B60" s="5">
         <v>0.40208333333333335</v>
       </c>
@@ -9151,8 +9996,8 @@
         <v>66176</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="50"/>
       <c r="B61" s="5">
         <v>0.45069444444444445</v>
       </c>
@@ -9188,690 +10033,1299 @@
         <v>62681</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="49">
+        <v>44714</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="D62" s="6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E62" s="26">
+        <v>423560</v>
+      </c>
+      <c r="F62" s="7">
+        <v>464634</v>
+      </c>
+      <c r="G62" s="7">
+        <v>7</v>
+      </c>
+      <c r="H62" s="7">
+        <v>12</v>
+      </c>
       <c r="I62" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>41074</v>
       </c>
       <c r="J62" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>32760</v>
       </c>
       <c r="K62" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
+        <v>73834</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="50"/>
+      <c r="B63" s="5">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="D63" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E63" s="7">
+        <v>464634</v>
+      </c>
+      <c r="F63" s="7">
+        <v>505729</v>
+      </c>
+      <c r="G63" s="7">
+        <v>2</v>
+      </c>
+      <c r="H63" s="7">
+        <v>16</v>
+      </c>
       <c r="I63" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>41095</v>
       </c>
       <c r="J63" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>25200</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+        <v>66295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="49">
+        <v>44715</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="D64" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E64" s="26">
+        <v>798158</v>
+      </c>
+      <c r="F64" s="7">
+        <v>838875</v>
+      </c>
+      <c r="G64" s="7">
+        <v>3</v>
+      </c>
+      <c r="H64" s="7">
+        <v>15</v>
+      </c>
       <c r="I64" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40717</v>
       </c>
       <c r="J64" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>26460</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+        <v>67177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="50"/>
+      <c r="B65" s="5">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="D65" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E65" s="7">
+        <v>838875</v>
+      </c>
+      <c r="F65" s="7">
+        <v>879475</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7">
+        <v>12</v>
+      </c>
       <c r="I65" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40600</v>
       </c>
       <c r="J65" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15120</v>
       </c>
       <c r="K65" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
+        <v>55720</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="49">
+        <v>44716</v>
+      </c>
+      <c r="B66" s="5">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="D66" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E66" s="26">
+        <v>445783</v>
+      </c>
+      <c r="F66" s="7">
+        <v>487870</v>
+      </c>
+      <c r="G66" s="7">
+        <v>2</v>
+      </c>
+      <c r="H66" s="7">
+        <v>9</v>
+      </c>
       <c r="I66" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>42087</v>
       </c>
       <c r="J66" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>16380</v>
       </c>
       <c r="K66" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+        <v>58467</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="50"/>
+      <c r="B67" s="5">
+        <v>0.19930555555555554</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0.21805555555555556</v>
+      </c>
+      <c r="D67" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E67" s="26">
+        <v>96583</v>
+      </c>
+      <c r="F67" s="7">
+        <v>137882</v>
+      </c>
+      <c r="G67" s="7">
+        <v>1</v>
+      </c>
+      <c r="H67" s="7">
+        <v>16</v>
+      </c>
       <c r="I67" s="7">
-        <f t="shared" ref="I67:I95" si="7">IF(SUM(F67-E67)&lt;0,"",SUM(F67-E67))</f>
-        <v>0</v>
+        <f t="shared" ref="I67:I92" si="7">IF(SUM(F67-E67)&lt;0,"",SUM(F67-E67))</f>
+        <v>41299</v>
       </c>
       <c r="J67" s="7">
-        <f t="shared" ref="J67:J95" si="8">IF(SUM(H67*1260+G67*2520)&lt;0,"",SUM(H67*1260+G67*2520))</f>
-        <v>0</v>
+        <f t="shared" ref="J67:J92" si="8">IF(SUM(H67*1260+G67*2520)&lt;0,"",SUM(H67*1260+G67*2520))</f>
+        <v>22680</v>
       </c>
       <c r="K67" s="7">
-        <f t="shared" ref="K67:K95" si="9">SUM(I67,J67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
+        <f t="shared" ref="K67:K92" si="9">SUM(I67,J67)</f>
+        <v>63979</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="49">
+        <v>44717</v>
+      </c>
+      <c r="B68" s="5">
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="C68" s="5">
+        <v>6.0416666666666667E-2</v>
+      </c>
+      <c r="D68" s="6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E68" s="26">
+        <v>118497</v>
+      </c>
+      <c r="F68" s="7">
+        <v>158664</v>
+      </c>
+      <c r="G68" s="7">
+        <v>3</v>
+      </c>
+      <c r="H68" s="7">
+        <v>16</v>
+      </c>
       <c r="I68" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40167</v>
       </c>
       <c r="J68" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>27720</v>
       </c>
       <c r="K68" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
+        <v>67887</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="59"/>
+      <c r="B69" s="5">
+        <v>0.18541666666666667</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0.21319444444444444</v>
+      </c>
+      <c r="D69" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E69" s="26">
+        <v>53773</v>
+      </c>
+      <c r="F69" s="7">
+        <v>96304</v>
+      </c>
+      <c r="G69" s="7">
+        <v>1</v>
+      </c>
+      <c r="H69" s="7">
+        <v>14</v>
+      </c>
       <c r="I69" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>42531</v>
       </c>
       <c r="J69" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20160</v>
       </c>
       <c r="K69" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
+        <v>62691</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="50"/>
+      <c r="B70" s="5">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="D70" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E70" s="26">
+        <v>4804</v>
+      </c>
+      <c r="F70" s="7">
+        <v>45964</v>
+      </c>
+      <c r="G70" s="7">
+        <v>2</v>
+      </c>
+      <c r="H70" s="7">
+        <v>7</v>
+      </c>
       <c r="I70" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>41160</v>
       </c>
       <c r="J70" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>13860</v>
       </c>
       <c r="K70" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
+        <v>55020</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="49">
+        <v>44718</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0.10902777777777778</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="D71" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E71" s="26">
+        <v>71853</v>
+      </c>
+      <c r="F71" s="7">
+        <v>111146</v>
+      </c>
+      <c r="G71" s="7">
+        <v>2</v>
+      </c>
+      <c r="H71" s="7">
+        <v>13</v>
+      </c>
       <c r="I71" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>39293</v>
       </c>
       <c r="J71" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>21420</v>
       </c>
       <c r="K71" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
+        <v>60713</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="59"/>
+      <c r="B72" s="5">
+        <v>0.19236111111111112</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="D72" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E72" s="26">
+        <v>285272</v>
+      </c>
+      <c r="F72" s="7">
+        <v>326752</v>
+      </c>
+      <c r="G72" s="7">
+        <v>1</v>
+      </c>
+      <c r="H72" s="7">
+        <v>15</v>
+      </c>
       <c r="I72" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>41480</v>
       </c>
       <c r="J72" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>21420</v>
       </c>
       <c r="K72" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
+        <v>62900</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="59"/>
+      <c r="B73" s="5">
+        <v>0.22291666666666665</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0.24444444444444446</v>
+      </c>
+      <c r="D73" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E73" s="7">
+        <v>324752</v>
+      </c>
+      <c r="F73" s="7">
+        <v>365866</v>
+      </c>
+      <c r="G73" s="7">
+        <v>4</v>
+      </c>
+      <c r="H73" s="7">
+        <v>12</v>
+      </c>
       <c r="I73" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>41114</v>
       </c>
       <c r="J73" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>25200</v>
       </c>
       <c r="K73" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
+        <v>66314</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="49">
+        <v>44719</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="D74" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E74" s="26">
+        <v>17617</v>
+      </c>
+      <c r="F74" s="7">
+        <v>57457</v>
+      </c>
+      <c r="G74" s="7">
+        <v>4</v>
+      </c>
+      <c r="H74" s="7">
+        <v>9</v>
+      </c>
       <c r="I74" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>39840</v>
       </c>
       <c r="J74" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>21420</v>
       </c>
       <c r="K74" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
+        <v>61260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="50"/>
+      <c r="B75" s="5">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D75" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E75" s="7">
+        <v>57457</v>
+      </c>
+      <c r="F75" s="7">
+        <v>98335</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0</v>
+      </c>
+      <c r="H75" s="7">
+        <v>9</v>
+      </c>
       <c r="I75" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40878</v>
       </c>
       <c r="J75" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>11340</v>
       </c>
       <c r="K75" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
+        <v>52218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="49">
+        <v>44720</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.17847222222222223</v>
+      </c>
+      <c r="C76" s="5">
+        <v>0.19930555555555554</v>
+      </c>
+      <c r="D76" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E76" s="26">
+        <v>296776</v>
+      </c>
+      <c r="F76" s="7">
+        <v>339058</v>
+      </c>
+      <c r="G76" s="7">
+        <v>2</v>
+      </c>
+      <c r="H76" s="7">
+        <v>16</v>
+      </c>
       <c r="I76" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>42282</v>
       </c>
       <c r="J76" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>25200</v>
       </c>
       <c r="K76" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="39"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
+        <v>67482</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="59"/>
+      <c r="B77" s="5">
+        <v>0.20416666666666669</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0.22777777777777777</v>
+      </c>
+      <c r="D77" s="6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E77" s="7">
+        <v>339058</v>
+      </c>
+      <c r="F77" s="7">
+        <v>380480</v>
+      </c>
+      <c r="G77" s="7">
+        <v>4</v>
+      </c>
+      <c r="H77" s="7">
+        <v>8</v>
+      </c>
       <c r="I77" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>41422</v>
       </c>
       <c r="J77" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20160</v>
       </c>
       <c r="K77" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
+        <v>61582</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="50"/>
+      <c r="B78" s="5">
+        <v>0.23124999999999998</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0.25972222222222224</v>
+      </c>
+      <c r="D78" s="6">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E78" s="7">
+        <v>380480</v>
+      </c>
+      <c r="F78" s="7">
+        <v>423166</v>
+      </c>
+      <c r="G78" s="7">
+        <v>2</v>
+      </c>
+      <c r="H78" s="7">
+        <v>11</v>
+      </c>
       <c r="I78" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>42686</v>
       </c>
       <c r="J78" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="K78" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="39"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
+        <v>61586</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="49">
+        <v>44721</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="C79" s="5">
+        <v>0.21388888888888891</v>
+      </c>
+      <c r="D79" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E79" s="26">
+        <v>67556</v>
+      </c>
+      <c r="F79" s="7">
+        <v>109100</v>
+      </c>
+      <c r="G79" s="7">
+        <v>4</v>
+      </c>
+      <c r="H79" s="7">
+        <v>14</v>
+      </c>
       <c r="I79" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>41544</v>
       </c>
       <c r="J79" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>27720</v>
       </c>
       <c r="K79" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
+        <v>69264</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="50"/>
+      <c r="B80" s="5">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="D80" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E80" s="26">
+        <v>35160</v>
+      </c>
+      <c r="F80" s="7">
+        <v>75934</v>
+      </c>
+      <c r="G80" s="7">
+        <v>3</v>
+      </c>
+      <c r="H80" s="7">
+        <v>10</v>
+      </c>
       <c r="I80" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40774</v>
       </c>
       <c r="J80" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20160</v>
       </c>
       <c r="K80" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="39"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
+        <v>60934</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="49">
+        <v>44722</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="C81" s="5">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="D81" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E81" s="26">
+        <v>32799</v>
+      </c>
+      <c r="F81" s="7">
+        <v>71568</v>
+      </c>
+      <c r="G81" s="7">
+        <v>3</v>
+      </c>
+      <c r="H81" s="7">
+        <v>12</v>
+      </c>
       <c r="I81" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>38769</v>
       </c>
       <c r="J81" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>22680</v>
       </c>
       <c r="K81" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="39"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
+        <v>61449</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="50"/>
+      <c r="B82" s="5">
+        <v>0.58263888888888882</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="D82" s="6">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E82" s="26">
+        <v>110784</v>
+      </c>
+      <c r="F82" s="7">
+        <v>150709</v>
+      </c>
+      <c r="G82" s="7">
+        <v>1</v>
+      </c>
+      <c r="H82" s="7">
+        <v>9</v>
+      </c>
       <c r="I82" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>39925</v>
       </c>
       <c r="J82" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>13860</v>
       </c>
       <c r="K82" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="39"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
+        <v>53785</v>
+      </c>
+      <c r="M82" s="42" t="str">
+        <f>COUNTIF(D:D,"&gt;0")&amp;"场"</f>
+        <v>90场</v>
+      </c>
+      <c r="N82" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O82" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="P82" s="68"/>
+      <c r="Q82" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="R82" s="69"/>
+      <c r="S82" s="68"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="39">
+        <v>44723</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.54097222222222219</v>
+      </c>
+      <c r="C83" s="5">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D83" s="6">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E83" s="26">
+        <v>10059</v>
+      </c>
+      <c r="F83" s="7">
+        <v>52400</v>
+      </c>
+      <c r="G83" s="7">
+        <v>1</v>
+      </c>
+      <c r="H83" s="7">
+        <v>14</v>
+      </c>
       <c r="I83" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>42341</v>
       </c>
       <c r="J83" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20160</v>
       </c>
       <c r="K83" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="39"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
+        <v>62501</v>
+      </c>
+      <c r="M83" s="43"/>
+      <c r="N83" s="43"/>
+      <c r="O83" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q83" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="R83" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="S83" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="49">
+        <v>44724</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0.15416666666666667</v>
+      </c>
+      <c r="D84" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E84" s="26">
+        <v>84294</v>
+      </c>
+      <c r="F84" s="7">
+        <v>125969</v>
+      </c>
+      <c r="G84" s="7">
+        <v>2</v>
+      </c>
+      <c r="H84" s="7">
+        <v>8</v>
+      </c>
       <c r="I84" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>41675</v>
       </c>
       <c r="J84" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>15120</v>
       </c>
       <c r="K84" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="39"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
+        <v>56795</v>
+      </c>
+      <c r="M84" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="N84" s="28" cm="1">
+        <f t="array" ref="N84">MIN(IF(D:D&gt;0,D:D))</f>
+        <v>23</v>
+      </c>
+      <c r="O84" s="29" cm="1">
+        <f t="array" ref="O84">MAX(IF(G:G&gt;0,G:G))</f>
+        <v>7</v>
+      </c>
+      <c r="P84" s="29" cm="1">
+        <f t="array" ref="P84">MAX(IF(H:H&gt;0,H:H))</f>
+        <v>18</v>
+      </c>
+      <c r="Q84" s="29" cm="1">
+        <f t="array" ref="Q84">MAX(IF(I:I&gt;0,I:I))</f>
+        <v>43596</v>
+      </c>
+      <c r="R84" s="29" cm="1">
+        <f t="array" ref="R84">MAX(IF(J:J&gt;0,J:J))</f>
+        <v>40320</v>
+      </c>
+      <c r="S84" s="29" cm="1">
+        <f t="array" ref="S84">MAX(IF(K:K&gt;0,K:K))</f>
+        <v>82032</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="59"/>
+      <c r="B85" s="5">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D85" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E85" s="26">
+        <v>13254</v>
+      </c>
+      <c r="F85" s="7">
+        <v>55873</v>
+      </c>
+      <c r="G85" s="7">
+        <v>4</v>
+      </c>
+      <c r="H85" s="7">
+        <v>7</v>
+      </c>
       <c r="I85" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>42619</v>
       </c>
       <c r="J85" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="K85" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
+        <v>61519</v>
+      </c>
+      <c r="M85" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N85" s="30">
+        <f>AVERAGEIF(D:D,"&lt;&gt;0")</f>
+        <v>35.033333333333331</v>
+      </c>
+      <c r="O85" s="31">
+        <f>AVERAGEIF(G:G,"&lt;&gt;0")</f>
+        <v>2.7647058823529411</v>
+      </c>
+      <c r="P85" s="31">
+        <f>AVERAGEIF(H:H,"&lt;&gt;0")</f>
+        <v>10.738636363636363</v>
+      </c>
+      <c r="Q85" s="31">
+        <f>AVERAGEIF(I:I,"&lt;&gt;0")</f>
+        <v>40970.211764705884</v>
+      </c>
+      <c r="R85" s="31">
+        <f>AVERAGEIF(J:J,"&lt;&gt;0")</f>
+        <v>20260.227272727272</v>
+      </c>
+      <c r="S85" s="31">
+        <f>AVERAGEIF(K:K,"&gt;30000")</f>
+        <v>61293.270588235297</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="50"/>
+      <c r="B86" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C86" s="5">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="D86" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E86" s="26">
+        <v>58752</v>
+      </c>
+      <c r="F86" s="7">
+        <v>100624</v>
+      </c>
+      <c r="G86" s="7">
+        <v>3</v>
+      </c>
+      <c r="H86" s="7">
+        <v>8</v>
+      </c>
       <c r="I86" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>41872</v>
       </c>
       <c r="J86" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>17640</v>
       </c>
       <c r="K86" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="39"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
+        <v>59512</v>
+      </c>
+      <c r="M86" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N86" s="32">
+        <f>MAX(D:D)</f>
+        <v>52</v>
+      </c>
+      <c r="O86" s="33" cm="1">
+        <f t="array" ref="O86">MIN(IF(G:G&gt;0,G:G))</f>
+        <v>1</v>
+      </c>
+      <c r="P86" s="33" cm="1">
+        <f t="array" ref="P86">MIN(IF(H:H&gt;0,H:H))</f>
+        <v>4</v>
+      </c>
+      <c r="Q86" s="33" cm="1">
+        <f t="array" ref="Q86">MIN(IF(I:I&gt;0,I:I))</f>
+        <v>38042</v>
+      </c>
+      <c r="R86" s="33" cm="1">
+        <f t="array" ref="R86">MIN(IF(J:J&gt;0,J:J))</f>
+        <v>10080</v>
+      </c>
+      <c r="S86" s="33" cm="1">
+        <f t="array" ref="S86">MIN(IF(K:K&gt;30000,K:K))</f>
+        <v>51414</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="49">
+        <v>44726</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="D87" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E87" s="26">
+        <v>89152</v>
+      </c>
+      <c r="F87" s="7">
+        <v>128385</v>
+      </c>
+      <c r="G87" s="7">
+        <v>2</v>
+      </c>
+      <c r="H87" s="7">
+        <v>14</v>
+      </c>
       <c r="I87" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>39233</v>
       </c>
       <c r="J87" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>22680</v>
       </c>
       <c r="K87" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="39"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
+        <v>61913</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="50"/>
+      <c r="B88" s="5">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C88" s="5">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="D88" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E88" s="7">
+        <v>128385</v>
+      </c>
+      <c r="F88" s="7">
+        <v>170482</v>
+      </c>
+      <c r="G88" s="7">
+        <v>2</v>
+      </c>
+      <c r="H88" s="7">
+        <v>12</v>
+      </c>
       <c r="I88" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>42097</v>
       </c>
       <c r="J88" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20160</v>
       </c>
       <c r="K88" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="39"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
+        <v>62257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="39">
+        <v>44727</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0.91388888888888886</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0.93819444444444444</v>
+      </c>
+      <c r="D89" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E89" s="26">
+        <v>389430</v>
+      </c>
+      <c r="F89" s="7">
+        <v>430460</v>
+      </c>
+      <c r="G89" s="7">
+        <v>4</v>
+      </c>
+      <c r="H89" s="7">
+        <v>9</v>
+      </c>
       <c r="I89" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>41030</v>
       </c>
       <c r="J89" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>21420</v>
       </c>
       <c r="K89" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="39"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
+        <v>62450</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="49">
+        <v>44728</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="D90" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E90" s="26">
+        <v>697674</v>
+      </c>
+      <c r="F90" s="7">
+        <v>739097</v>
+      </c>
+      <c r="G90" s="7">
+        <v>4</v>
+      </c>
+      <c r="H90" s="7">
+        <v>8</v>
+      </c>
       <c r="I90" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>41423</v>
       </c>
       <c r="J90" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20160</v>
       </c>
       <c r="K90" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="39"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
+        <v>61583</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="50"/>
+      <c r="B91" s="5">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0.53541666666666665</v>
+      </c>
+      <c r="D91" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E91" s="26">
+        <v>740572</v>
+      </c>
+      <c r="F91" s="7">
+        <v>783730</v>
+      </c>
+      <c r="G91" s="7">
+        <v>5</v>
+      </c>
+      <c r="H91" s="7">
+        <v>11</v>
+      </c>
       <c r="I91" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>43158</v>
       </c>
       <c r="J91" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>26460</v>
       </c>
       <c r="K91" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="39"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
+        <v>69618</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="39">
+        <v>44729</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="C92" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D92" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E92" s="26">
+        <v>909746</v>
+      </c>
+      <c r="F92" s="7">
+        <v>949804</v>
+      </c>
+      <c r="G92" s="7">
+        <v>2</v>
+      </c>
+      <c r="H92" s="7">
+        <v>9</v>
+      </c>
       <c r="I92" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40058</v>
       </c>
       <c r="J92" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>16380</v>
       </c>
       <c r="K92" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
+        <v>56438</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="40"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="6"/>
@@ -9880,20 +11334,20 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
       <c r="I93" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="I93:I114" si="10">IF(SUM(F93-E93)&lt;0,"",SUM(F93-E93))</f>
         <v>0</v>
       </c>
       <c r="J93" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J93:J114" si="11">IF(SUM(H93*1260+G93*2520)&lt;0,"",SUM(H93*1260+G93*2520))</f>
         <v>0</v>
       </c>
       <c r="K93" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="39"/>
+        <f t="shared" ref="K93:K114" si="12">SUM(I93,J93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="40"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="6"/>
@@ -9902,20 +11356,20 @@
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
       <c r="I94" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J94" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K94" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="39"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="40"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="6"/>
@@ -9924,35 +11378,452 @@
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
       <c r="I95" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J95" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K95" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="40"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K96" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="40"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K97" s="7"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="40"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="40"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K99" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="40"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K100" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="40"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="40"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="40"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K103" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="40"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="40"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K105" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="40"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K106" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="40"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K107" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="40"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K108" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="40"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K109" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="40"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K110" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="40"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K111" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="40"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K112" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="40"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="40"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K114" s="7">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A59:A61"/>
+  <mergeCells count="40">
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="M82:M83"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A44:A47"/>
     <mergeCell ref="A1:A2"/>
@@ -9966,15 +11837,25 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A84:A86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="33" operator="between">
       <formula>1</formula>
-      <formula>$N$57</formula>
+      <formula>$N$85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="greaterThan">
-      <formula>$N$57</formula>
+    <cfRule type="cellIs" dxfId="0" priority="34" operator="greaterThan">
+      <formula>$N$85</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Other/狗粮计算-挖矿.xlsx
+++ b/Other/狗粮计算-挖矿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vesugier\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFA014B-6346-443A-B1E3-CE2AD5E370E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9502889-ACC5-40DC-84AA-F0159A6594AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -760,6 +760,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2657,7 +2660,7 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2673,77 +2676,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="48" t="str">
+      <c r="O1" s="49" t="str">
         <f>COUNTIF(G:G,"&gt;0")&amp;"趟"</f>
         <v>23趟</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="W1" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="47"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="12" t="s">
         <v>5</v>
       </c>
@@ -2753,11 +2756,11 @@
       <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
       <c r="R2" s="22" t="s">
         <v>5</v>
       </c>
@@ -2767,7 +2770,7 @@
       <c r="T2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="48"/>
+      <c r="U2" s="49"/>
       <c r="W2" s="12" t="s">
         <v>63</v>
       </c>
@@ -4491,7 +4494,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M39" sqref="M39"/>
+      <selection pane="bottomRight" activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4504,56 +4507,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="41" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="51" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="53"/>
-      <c r="T1" s="51" t="s">
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="54"/>
+      <c r="T1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="54"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
+      <c r="A2" s="49"/>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="58"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="59"/>
       <c r="F2" s="12" t="s">
         <v>17</v>
       </c>
@@ -4593,14 +4596,14 @@
       <c r="R2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="60"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="62"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="63"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="49">
+      <c r="A3" s="50">
         <v>44679</v>
       </c>
       <c r="B3" s="5"/>
@@ -4642,17 +4645,17 @@
       <c r="T3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="41" t="s">
+      <c r="U3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
       <c r="X3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6">
@@ -4710,19 +4713,19 @@
         <f t="array" ref="T4">MIN(IF(D:D&gt;0,D:D))</f>
         <v>20</v>
       </c>
-      <c r="U4" s="63">
+      <c r="U4" s="64">
         <f>AVERAGEIF(D:D,"&lt;&gt;0")</f>
         <v>28.3125</v>
       </c>
-      <c r="V4" s="64"/>
-      <c r="W4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="66"/>
       <c r="X4" s="14">
         <f>MAX(D:D)</f>
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="5">
         <v>4.5833333333333337E-2</v>
       </c>
@@ -4781,16 +4784,16 @@
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="T5" s="51" t="s">
+      <c r="T5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="54"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="5">
         <v>0.36458333333333331</v>
       </c>
@@ -4848,14 +4851,14 @@
         <f t="shared" si="1"/>
         <v>297</v>
       </c>
-      <c r="T6" s="60"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="62"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="63"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="5">
         <v>0.3972222222222222</v>
       </c>
@@ -4930,7 +4933,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="5">
         <v>0.59375</v>
       </c>
@@ -5010,7 +5013,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="5">
         <v>0.9375</v>
       </c>
@@ -5068,16 +5071,16 @@
         <f t="shared" si="1"/>
         <v>318</v>
       </c>
-      <c r="T9" s="54" t="s">
+      <c r="T9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="57"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="5">
         <v>0.9604166666666667</v>
       </c>
@@ -5152,7 +5155,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="5">
         <v>0.98125000000000007</v>
       </c>
@@ -5232,7 +5235,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
+      <c r="A12" s="50">
         <v>44680</v>
       </c>
       <c r="B12" s="5">
@@ -5292,16 +5295,16 @@
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
-      <c r="T12" s="41" t="s">
+      <c r="T12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="5">
         <v>0.98749999999999993</v>
       </c>
@@ -5359,11 +5362,11 @@
         <f t="shared" si="1"/>
         <v>318</v>
       </c>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -5525,7 +5528,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="49">
+      <c r="A16" s="50">
         <v>44685</v>
       </c>
       <c r="B16" s="5">
@@ -5607,7 +5610,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="5">
         <v>0.84722222222222221</v>
       </c>
@@ -5665,16 +5668,16 @@
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="T17" s="54" t="s">
+      <c r="T17" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="57"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+      <c r="A18" s="50">
         <v>44686</v>
       </c>
       <c r="B18" s="5">
@@ -5749,7 +5752,7 @@
       <c r="X18" s="11"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="5">
         <v>0.88402777777777775</v>
       </c>
@@ -5809,24 +5812,24 @@
       </c>
       <c r="T19" s="15">
         <f>LOOKUP(9E+307,F:F)+LOOKUP(9E+307,J:J)</f>
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="U19" s="15">
         <f>LOOKUP(9E+307,G:G)+LOOKUP(9E+307,K:K)</f>
-        <v>4543</v>
+        <v>4338</v>
       </c>
       <c r="V19" s="15">
         <f>LOOKUP(9E+307,H:H)+LOOKUP(9E+307,L:L)</f>
-        <v>1496</v>
+        <v>1502</v>
       </c>
       <c r="W19" s="15">
         <f>LOOKUP(9E+307,I:I)+LOOKUP(9E+307,M:M)</f>
-        <v>5416</v>
+        <v>5425</v>
       </c>
       <c r="X19" s="18"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="5">
         <v>0.90486111111111101</v>
       </c>
@@ -5886,7 +5889,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+      <c r="A21" s="50">
         <v>44688</v>
       </c>
       <c r="B21" s="5">
@@ -5948,7 +5951,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="5">
         <v>0.41388888888888892</v>
       </c>
@@ -6008,7 +6011,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="5">
         <v>0.93541666666666667</v>
       </c>
@@ -6068,7 +6071,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49">
+      <c r="A24" s="50">
         <v>44689</v>
       </c>
       <c r="B24" s="5">
@@ -6131,7 +6134,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="5">
         <v>0.8979166666666667</v>
       </c>
@@ -6192,7 +6195,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
+      <c r="A26" s="50">
         <v>44690</v>
       </c>
       <c r="B26" s="5">
@@ -6254,7 +6257,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="5">
         <v>0.8256944444444444</v>
       </c>
@@ -6317,7 +6320,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49">
+      <c r="A28" s="50">
         <v>44691</v>
       </c>
       <c r="B28" s="5">
@@ -6379,7 +6382,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="5">
         <v>0.9472222222222223</v>
       </c>
@@ -6435,7 +6438,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49">
+      <c r="A30" s="50">
         <v>44693</v>
       </c>
       <c r="B30" s="5">
@@ -6497,7 +6500,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="5">
         <v>0.81874999999999998</v>
       </c>
@@ -6834,16 +6837,16 @@
         <v>5416</v>
       </c>
       <c r="J36" s="7">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="K36" s="7">
-        <v>-139</v>
+        <v>-344</v>
       </c>
       <c r="L36" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M36" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N36" s="8">
         <f t="shared" si="2"/>
@@ -7753,11 +7756,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFBCF39-BB4C-47DB-8068-B14EA7E51C6D}">
-  <dimension ref="A1:S114"/>
+  <dimension ref="A1:S136"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J97" sqref="J97"/>
+      <selection pane="bottomLeft" activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7778,39 +7781,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="51" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="43"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="3" t="s">
         <v>43</v>
       </c>
@@ -7844,7 +7847,7 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D92" si="0">HOUR(SUM(C3-B3))*60+MINUTE(SUM(C3-B3))</f>
+        <f t="shared" ref="D3:D112" si="0">HOUR(SUM(C3-B3))*60+MINUTE(SUM(C3-B3))</f>
         <v>36</v>
       </c>
       <c r="E3" s="7"/>
@@ -7869,7 +7872,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66">
+      <c r="A4" s="67">
         <v>44693</v>
       </c>
       <c r="B4" s="5">
@@ -7904,7 +7907,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="5">
         <v>0.64652777777777781</v>
       </c>
@@ -7941,7 +7944,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="5">
         <v>0.7583333333333333</v>
       </c>
@@ -7978,7 +7981,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66">
+      <c r="A7" s="67">
         <v>44694</v>
       </c>
       <c r="B7" s="5">
@@ -8013,7 +8016,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="5">
         <v>0.29930555555555555</v>
       </c>
@@ -8050,7 +8053,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="5">
         <v>0.69236111111111109</v>
       </c>
@@ -8087,7 +8090,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66">
+      <c r="A10" s="67">
         <v>44695</v>
       </c>
       <c r="B10" s="5">
@@ -8126,7 +8129,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="5">
         <v>0.3347222222222222</v>
       </c>
@@ -8163,7 +8166,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="5">
         <v>0.79027777777777775</v>
       </c>
@@ -8200,7 +8203,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66">
+      <c r="A13" s="67">
         <v>44696</v>
       </c>
       <c r="B13" s="5">
@@ -8239,7 +8242,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="5">
         <v>0.42222222222222222</v>
       </c>
@@ -8276,7 +8279,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="5">
         <v>0.45833333333333331</v>
       </c>
@@ -8313,7 +8316,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="5">
         <v>0.96250000000000002</v>
       </c>
@@ -8381,7 +8384,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66">
+      <c r="A18" s="67">
         <v>44698</v>
       </c>
       <c r="B18" s="5">
@@ -8420,7 +8423,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="5">
         <v>8.2638888888888887E-2</v>
       </c>
@@ -8457,7 +8460,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="5">
         <v>0.19722222222222222</v>
       </c>
@@ -8494,7 +8497,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="5">
         <v>0.27708333333333335</v>
       </c>
@@ -8531,7 +8534,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="5">
         <v>0.43958333333333338</v>
       </c>
@@ -8568,7 +8571,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66">
+      <c r="A23" s="67">
         <v>44699</v>
       </c>
       <c r="B23" s="5">
@@ -8607,7 +8610,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="5">
         <v>0.98263888888888884</v>
       </c>
@@ -8644,7 +8647,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="66">
+      <c r="A25" s="67">
         <v>44700</v>
       </c>
       <c r="B25" s="5">
@@ -8683,7 +8686,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="5">
         <v>0.16944444444444443</v>
       </c>
@@ -8720,7 +8723,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="5">
         <v>0.38958333333333334</v>
       </c>
@@ -8760,7 +8763,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="5">
         <v>0.43958333333333338</v>
       </c>
@@ -8797,7 +8800,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66">
+      <c r="A29" s="67">
         <v>44701</v>
       </c>
       <c r="B29" s="5">
@@ -8836,7 +8839,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="5">
         <v>0.89513888888888893</v>
       </c>
@@ -8873,7 +8876,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="5">
         <v>0.92638888888888893</v>
       </c>
@@ -8910,7 +8913,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66">
+      <c r="A32" s="67">
         <v>44703</v>
       </c>
       <c r="B32" s="5">
@@ -8949,7 +8952,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="5">
         <v>0.34791666666666665</v>
       </c>
@@ -8986,7 +8989,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="66"/>
+      <c r="A34" s="67"/>
       <c r="B34" s="5">
         <v>0.38750000000000001</v>
       </c>
@@ -9023,7 +9026,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
+      <c r="A35" s="67"/>
       <c r="B35" s="5">
         <v>0.9458333333333333</v>
       </c>
@@ -9052,7 +9055,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49">
+      <c r="A36" s="50">
         <v>44704</v>
       </c>
       <c r="B36" s="5">
@@ -9091,7 +9094,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="5">
         <v>0.35625000000000001</v>
       </c>
@@ -9128,7 +9131,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="5">
         <v>0.90069444444444446</v>
       </c>
@@ -9165,7 +9168,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49">
+      <c r="A39" s="50">
         <v>44705</v>
       </c>
       <c r="B39" s="5">
@@ -9204,7 +9207,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="5">
         <v>0.23055555555555554</v>
       </c>
@@ -9241,7 +9244,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="5">
         <v>0.29375000000000001</v>
       </c>
@@ -9278,7 +9281,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49">
+      <c r="A42" s="50">
         <v>44706</v>
       </c>
       <c r="B42" s="5">
@@ -9317,7 +9320,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="5">
         <v>0.20277777777777781</v>
       </c>
@@ -9354,7 +9357,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49">
+      <c r="A44" s="50">
         <v>44707</v>
       </c>
       <c r="B44" s="5">
@@ -9393,7 +9396,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="5">
         <v>0.17430555555555557</v>
       </c>
@@ -9430,7 +9433,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="5">
         <v>0.20972222222222223</v>
       </c>
@@ -9467,7 +9470,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="5">
         <v>0.90347222222222223</v>
       </c>
@@ -9504,7 +9507,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49">
+      <c r="A48" s="50">
         <v>44708</v>
       </c>
       <c r="B48" s="5">
@@ -9543,7 +9546,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="5">
         <v>0.51874999999999993</v>
       </c>
@@ -9580,7 +9583,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="5">
         <v>0.9</v>
       </c>
@@ -9617,7 +9620,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="49">
+      <c r="A51" s="50">
         <v>44709</v>
       </c>
       <c r="B51" s="5">
@@ -9656,7 +9659,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="5">
         <v>0.87847222222222221</v>
       </c>
@@ -9732,7 +9735,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="49">
+      <c r="A54" s="50">
         <v>44711</v>
       </c>
       <c r="B54" s="5">
@@ -9771,7 +9774,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="5">
         <v>0.24305555555555555</v>
       </c>
@@ -9808,7 +9811,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="5">
         <v>0.28680555555555554</v>
       </c>
@@ -9845,7 +9848,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="49">
+      <c r="A57" s="50">
         <v>44712</v>
       </c>
       <c r="B57" s="5">
@@ -9884,7 +9887,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="5">
         <v>0.9458333333333333</v>
       </c>
@@ -9921,7 +9924,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="49">
+      <c r="A59" s="50">
         <v>44713</v>
       </c>
       <c r="B59" s="5">
@@ -9960,7 +9963,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
+      <c r="A60" s="60"/>
       <c r="B60" s="5">
         <v>0.40208333333333335</v>
       </c>
@@ -9997,7 +10000,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="5">
         <v>0.45069444444444445</v>
       </c>
@@ -10034,7 +10037,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="49">
+      <c r="A62" s="50">
         <v>44714</v>
       </c>
       <c r="B62" s="5">
@@ -10073,7 +10076,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="5">
         <v>0.63541666666666663</v>
       </c>
@@ -10110,7 +10113,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="49">
+      <c r="A64" s="50">
         <v>44715</v>
       </c>
       <c r="B64" s="5">
@@ -10149,7 +10152,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="5">
         <v>0.21527777777777779</v>
       </c>
@@ -10186,7 +10189,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="49">
+      <c r="A66" s="50">
         <v>44716</v>
       </c>
       <c r="B66" s="5">
@@ -10225,7 +10228,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="5">
         <v>0.19930555555555554</v>
       </c>
@@ -10262,7 +10265,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="49">
+      <c r="A68" s="50">
         <v>44717</v>
       </c>
       <c r="B68" s="5">
@@ -10301,7 +10304,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="5">
         <v>0.18541666666666667</v>
       </c>
@@ -10338,7 +10341,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="50"/>
+      <c r="A70" s="51"/>
       <c r="B70" s="5">
         <v>0.5131944444444444</v>
       </c>
@@ -10375,7 +10378,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="49">
+      <c r="A71" s="50">
         <v>44718</v>
       </c>
       <c r="B71" s="5">
@@ -10414,7 +10417,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="59"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="5">
         <v>0.19236111111111112</v>
       </c>
@@ -10451,7 +10454,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="5">
         <v>0.22291666666666665</v>
       </c>
@@ -10488,7 +10491,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="49">
+      <c r="A74" s="50">
         <v>44719</v>
       </c>
       <c r="B74" s="5">
@@ -10527,7 +10530,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="5">
         <v>0.52500000000000002</v>
       </c>
@@ -10564,7 +10567,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="49">
+      <c r="A76" s="50">
         <v>44720</v>
       </c>
       <c r="B76" s="5">
@@ -10603,7 +10606,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="59"/>
+      <c r="A77" s="60"/>
       <c r="B77" s="5">
         <v>0.20416666666666669</v>
       </c>
@@ -10640,7 +10643,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
+      <c r="A78" s="51"/>
       <c r="B78" s="5">
         <v>0.23124999999999998</v>
       </c>
@@ -10677,7 +10680,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="49">
+      <c r="A79" s="50">
         <v>44721</v>
       </c>
       <c r="B79" s="5">
@@ -10716,7 +10719,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="50"/>
+      <c r="A80" s="51"/>
       <c r="B80" s="5">
         <v>0.54652777777777783</v>
       </c>
@@ -10752,8 +10755,8 @@
         <v>60934</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="49">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="50">
         <v>44722</v>
       </c>
       <c r="B81" s="5">
@@ -10791,8 +10794,8 @@
         <v>61449</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="50"/>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="51"/>
       <c r="B82" s="5">
         <v>0.58263888888888882</v>
       </c>
@@ -10827,24 +10830,8 @@
         <f t="shared" si="9"/>
         <v>53785</v>
       </c>
-      <c r="M82" s="42" t="str">
-        <f>COUNTIF(D:D,"&gt;0")&amp;"场"</f>
-        <v>90场</v>
-      </c>
-      <c r="N82" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="O82" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="P82" s="68"/>
-      <c r="Q82" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="R82" s="69"/>
-      <c r="S82" s="68"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <v>44723</v>
       </c>
@@ -10882,26 +10869,9 @@
         <f t="shared" si="9"/>
         <v>62501</v>
       </c>
-      <c r="M83" s="43"/>
-      <c r="N83" s="43"/>
-      <c r="O83" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="P83" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q83" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R83" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="S83" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="49">
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="50">
         <v>44724</v>
       </c>
       <c r="B84" s="5">
@@ -10938,36 +10908,9 @@
         <f t="shared" si="9"/>
         <v>56795</v>
       </c>
-      <c r="M84" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="N84" s="28" cm="1">
-        <f t="array" ref="N84">MIN(IF(D:D&gt;0,D:D))</f>
-        <v>23</v>
-      </c>
-      <c r="O84" s="29" cm="1">
-        <f t="array" ref="O84">MAX(IF(G:G&gt;0,G:G))</f>
-        <v>7</v>
-      </c>
-      <c r="P84" s="29" cm="1">
-        <f t="array" ref="P84">MAX(IF(H:H&gt;0,H:H))</f>
-        <v>18</v>
-      </c>
-      <c r="Q84" s="29" cm="1">
-        <f t="array" ref="Q84">MAX(IF(I:I&gt;0,I:I))</f>
-        <v>43596</v>
-      </c>
-      <c r="R84" s="29" cm="1">
-        <f t="array" ref="R84">MAX(IF(J:J&gt;0,J:J))</f>
-        <v>40320</v>
-      </c>
-      <c r="S84" s="29" cm="1">
-        <f t="array" ref="S84">MAX(IF(K:K&gt;0,K:K))</f>
-        <v>82032</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="59"/>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="60"/>
       <c r="B85" s="5">
         <v>0.4069444444444445</v>
       </c>
@@ -11002,36 +10945,9 @@
         <f t="shared" si="9"/>
         <v>61519</v>
       </c>
-      <c r="M85" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="N85" s="30">
-        <f>AVERAGEIF(D:D,"&lt;&gt;0")</f>
-        <v>35.033333333333331</v>
-      </c>
-      <c r="O85" s="31">
-        <f>AVERAGEIF(G:G,"&lt;&gt;0")</f>
-        <v>2.7647058823529411</v>
-      </c>
-      <c r="P85" s="31">
-        <f>AVERAGEIF(H:H,"&lt;&gt;0")</f>
-        <v>10.738636363636363</v>
-      </c>
-      <c r="Q85" s="31">
-        <f>AVERAGEIF(I:I,"&lt;&gt;0")</f>
-        <v>40970.211764705884</v>
-      </c>
-      <c r="R85" s="31">
-        <f>AVERAGEIF(J:J,"&lt;&gt;0")</f>
-        <v>20260.227272727272</v>
-      </c>
-      <c r="S85" s="31">
-        <f>AVERAGEIF(K:K,"&gt;30000")</f>
-        <v>61293.270588235297</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="50"/>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="51"/>
       <c r="B86" s="5">
         <v>0.63888888888888895</v>
       </c>
@@ -11066,36 +10982,9 @@
         <f t="shared" si="9"/>
         <v>59512</v>
       </c>
-      <c r="M86" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="N86" s="32">
-        <f>MAX(D:D)</f>
-        <v>52</v>
-      </c>
-      <c r="O86" s="33" cm="1">
-        <f t="array" ref="O86">MIN(IF(G:G&gt;0,G:G))</f>
-        <v>1</v>
-      </c>
-      <c r="P86" s="33" cm="1">
-        <f t="array" ref="P86">MIN(IF(H:H&gt;0,H:H))</f>
-        <v>4</v>
-      </c>
-      <c r="Q86" s="33" cm="1">
-        <f t="array" ref="Q86">MIN(IF(I:I&gt;0,I:I))</f>
-        <v>38042</v>
-      </c>
-      <c r="R86" s="33" cm="1">
-        <f t="array" ref="R86">MIN(IF(J:J&gt;0,J:J))</f>
-        <v>10080</v>
-      </c>
-      <c r="S86" s="33" cm="1">
-        <f t="array" ref="S86">MIN(IF(K:K&gt;30000,K:K))</f>
-        <v>51414</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="49">
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="50">
         <v>44726</v>
       </c>
       <c r="B87" s="5">
@@ -11133,8 +11022,8 @@
         <v>61913</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="50"/>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="51"/>
       <c r="B88" s="5">
         <v>0.52430555555555558</v>
       </c>
@@ -11170,7 +11059,7 @@
         <v>62257</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
         <v>44727</v>
       </c>
@@ -11209,8 +11098,8 @@
         <v>62450</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="49">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="50">
         <v>44728</v>
       </c>
       <c r="B90" s="5">
@@ -11248,8 +11137,8 @@
         <v>61583</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="50"/>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
       <c r="B91" s="5">
         <v>0.51458333333333328</v>
       </c>
@@ -11285,7 +11174,7 @@
         <v>69618</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <v>44729</v>
       </c>
@@ -11324,441 +11213,872 @@
         <v>56438</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="50">
+        <v>44730</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="C93" s="5">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="D93" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E93" s="26">
+        <v>83977</v>
+      </c>
+      <c r="F93" s="7">
+        <v>126490</v>
+      </c>
+      <c r="G93" s="7">
+        <v>1</v>
+      </c>
+      <c r="H93" s="7">
+        <v>10</v>
+      </c>
       <c r="I93" s="7">
-        <f t="shared" ref="I93:I114" si="10">IF(SUM(F93-E93)&lt;0,"",SUM(F93-E93))</f>
-        <v>0</v>
+        <f t="shared" ref="I93:I113" si="10">IF(SUM(F93-E93)&lt;0,"",SUM(F93-E93))</f>
+        <v>42513</v>
       </c>
       <c r="J93" s="7">
-        <f t="shared" ref="J93:J114" si="11">IF(SUM(H93*1260+G93*2520)&lt;0,"",SUM(H93*1260+G93*2520))</f>
-        <v>0</v>
+        <f t="shared" ref="J93:J113" si="11">IF(SUM(H93*1260+G93*2520)&lt;0,"",SUM(H93*1260+G93*2520))</f>
+        <v>15120</v>
       </c>
       <c r="K93" s="7">
-        <f t="shared" ref="K93:K114" si="12">SUM(I93,J93)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
+        <f t="shared" ref="K93:K113" si="12">SUM(I93,J93)</f>
+        <v>57633</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="51"/>
+      <c r="B94" s="5">
+        <v>0.8520833333333333</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0.87222222222222223</v>
+      </c>
+      <c r="D94" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E94" s="26">
+        <v>8486</v>
+      </c>
+      <c r="F94" s="7">
+        <v>47657</v>
+      </c>
+      <c r="G94" s="7">
+        <v>6</v>
+      </c>
+      <c r="H94" s="7">
+        <v>9</v>
+      </c>
       <c r="I94" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>39171</v>
       </c>
       <c r="J94" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>26460</v>
       </c>
       <c r="K94" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
+        <v>65631</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="50">
+        <v>44731</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C95" s="5">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D95" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E95" s="26">
+        <v>220519</v>
+      </c>
+      <c r="F95" s="7">
+        <v>262568</v>
+      </c>
+      <c r="G95" s="7">
+        <v>3</v>
+      </c>
+      <c r="H95" s="7">
+        <v>7</v>
+      </c>
       <c r="I95" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>42049</v>
       </c>
       <c r="J95" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>16380</v>
       </c>
       <c r="K95" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
+        <v>58429</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="60"/>
+      <c r="B96" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="D96" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E96" s="7">
+        <v>262568</v>
+      </c>
+      <c r="F96" s="7">
+        <v>304153</v>
+      </c>
+      <c r="G96" s="7">
+        <v>2</v>
+      </c>
+      <c r="H96" s="7">
+        <v>6</v>
+      </c>
       <c r="I96" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>41585</v>
       </c>
       <c r="J96" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="K96" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
+        <v>54185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="51"/>
+      <c r="B97" s="5">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C97" s="5">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="D97" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E97" s="7">
+        <v>304153</v>
+      </c>
+      <c r="F97" s="7">
+        <v>344062</v>
+      </c>
+      <c r="G97" s="7">
+        <v>1</v>
+      </c>
+      <c r="H97" s="7">
+        <v>8</v>
+      </c>
       <c r="I97" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>39909</v>
       </c>
       <c r="J97" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K97" s="7"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
+        <v>12600</v>
+      </c>
+      <c r="K97" s="7">
+        <f t="shared" si="12"/>
+        <v>52509</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="50">
+        <v>44732</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="C98" s="5">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="D98" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E98" s="26">
+        <v>287552</v>
+      </c>
+      <c r="F98" s="7">
+        <v>329644</v>
+      </c>
+      <c r="G98" s="7">
+        <v>3</v>
+      </c>
+      <c r="H98" s="7">
+        <v>10</v>
+      </c>
       <c r="I98" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>42092</v>
       </c>
       <c r="J98" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20160</v>
       </c>
       <c r="K98" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
+        <v>62252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="60"/>
+      <c r="B99" s="5">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="D99" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E99" s="7">
+        <v>329644</v>
+      </c>
+      <c r="F99" s="7">
+        <v>369434</v>
+      </c>
+      <c r="G99" s="7">
+        <v>3</v>
+      </c>
+      <c r="H99" s="7">
+        <v>7</v>
+      </c>
       <c r="I99" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>39790</v>
       </c>
       <c r="J99" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>16380</v>
       </c>
       <c r="K99" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
+        <v>56170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="51"/>
+      <c r="B100" s="5">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D100" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E100" s="7">
+        <v>369434</v>
+      </c>
+      <c r="F100" s="7">
+        <v>409432</v>
+      </c>
+      <c r="G100" s="7">
+        <v>4</v>
+      </c>
+      <c r="H100" s="7">
+        <v>10</v>
+      </c>
       <c r="I100" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>39998</v>
       </c>
       <c r="J100" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>22680</v>
       </c>
       <c r="K100" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
+        <v>62678</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="67">
+        <v>44733</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0.91041666666666676</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0.93472222222222223</v>
+      </c>
+      <c r="D101" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E101" s="26">
+        <v>32059</v>
+      </c>
+      <c r="F101" s="7">
+        <v>72972</v>
+      </c>
+      <c r="G101" s="7">
+        <v>6</v>
+      </c>
+      <c r="H101" s="7">
+        <v>11</v>
+      </c>
       <c r="I101" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>40913</v>
       </c>
       <c r="J101" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>28980</v>
       </c>
       <c r="K101" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
+        <v>69893</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="67"/>
+      <c r="B102" s="5">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="C102" s="5">
+        <v>0.98472222222222217</v>
+      </c>
+      <c r="D102" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E102" s="26">
+        <v>82620</v>
+      </c>
+      <c r="F102" s="7">
+        <v>123019</v>
+      </c>
+      <c r="G102" s="7">
+        <v>1</v>
+      </c>
+      <c r="H102" s="7">
+        <v>8</v>
+      </c>
       <c r="I102" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>40399</v>
       </c>
       <c r="J102" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="K102" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
+        <v>52999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="50">
+        <v>44734</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="C103" s="5">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="D103" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E103" s="26">
+        <v>10141</v>
+      </c>
+      <c r="F103" s="7">
+        <v>50704</v>
+      </c>
+      <c r="G103" s="7">
+        <v>0</v>
+      </c>
+      <c r="H103" s="7">
+        <v>14</v>
+      </c>
       <c r="I103" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>40563</v>
       </c>
       <c r="J103" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>17640</v>
       </c>
       <c r="K103" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="7"/>
+        <v>58203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="51"/>
+      <c r="B104" s="5">
+        <v>0.8534722222222223</v>
+      </c>
+      <c r="C104" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D104" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E104" s="26">
+        <v>46504</v>
+      </c>
+      <c r="F104" s="7">
+        <v>87123</v>
+      </c>
       <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
+      <c r="H104" s="7">
+        <v>8</v>
+      </c>
       <c r="I104" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>40619</v>
       </c>
       <c r="J104" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10080</v>
       </c>
       <c r="K104" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
+        <v>50699</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" s="50">
+        <v>44735</v>
+      </c>
+      <c r="B105" s="5">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="C105" s="5">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="D105" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E105" s="26">
+        <v>74314</v>
+      </c>
+      <c r="F105" s="7">
+        <v>114392</v>
+      </c>
+      <c r="G105" s="7">
+        <v>1</v>
+      </c>
+      <c r="H105" s="7">
+        <v>6</v>
+      </c>
       <c r="I105" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>40078</v>
       </c>
       <c r="J105" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10080</v>
       </c>
       <c r="K105" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
+        <v>50158</v>
+      </c>
+      <c r="M105" s="43" t="str">
+        <f>COUNTIF(D:D,"&gt;0")&amp;"场"</f>
+        <v>110场</v>
+      </c>
+      <c r="N105" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O105" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="P105" s="69"/>
+      <c r="Q105" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="R105" s="70"/>
+      <c r="S105" s="69"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="60"/>
+      <c r="B106" s="5">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="C106" s="5">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="D106" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E106" s="7">
+        <v>114392</v>
+      </c>
+      <c r="F106" s="7">
+        <v>156322</v>
+      </c>
+      <c r="G106" s="7">
+        <v>1</v>
+      </c>
+      <c r="H106" s="7">
+        <v>7</v>
+      </c>
       <c r="I106" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>41930</v>
       </c>
       <c r="J106" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>11340</v>
       </c>
       <c r="K106" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
+        <v>53270</v>
+      </c>
+      <c r="M106" s="44"/>
+      <c r="N106" s="44"/>
+      <c r="O106" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P106" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q106" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="R106" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="S106" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="51"/>
+      <c r="B107" s="5">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C107" s="5">
+        <v>0.74097222222222225</v>
+      </c>
+      <c r="D107" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E107" s="7">
+        <v>156322</v>
+      </c>
+      <c r="F107" s="7">
+        <v>198538</v>
+      </c>
+      <c r="G107" s="7">
+        <v>2</v>
+      </c>
+      <c r="H107" s="7">
+        <v>14</v>
+      </c>
       <c r="I107" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>42216</v>
       </c>
       <c r="J107" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>22680</v>
       </c>
       <c r="K107" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
+        <v>64896</v>
+      </c>
+      <c r="M107" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="N107" s="28" cm="1">
+        <f t="array" ref="N107">MIN(IF(D:D&gt;0,D:D))</f>
+        <v>23</v>
+      </c>
+      <c r="O107" s="29" cm="1">
+        <f t="array" ref="O107">MAX(IF(G:G&gt;0,G:G))</f>
+        <v>7</v>
+      </c>
+      <c r="P107" s="29" cm="1">
+        <f t="array" ref="P107">MAX(IF(H:H&gt;0,H:H))</f>
+        <v>18</v>
+      </c>
+      <c r="Q107" s="29" cm="1">
+        <f t="array" ref="Q107">MAX(IF(I:I&gt;0,I:I))</f>
+        <v>43596</v>
+      </c>
+      <c r="R107" s="29" cm="1">
+        <f t="array" ref="R107">MAX(IF(J:J&gt;0,J:J))</f>
+        <v>40320</v>
+      </c>
+      <c r="S107" s="29" cm="1">
+        <f t="array" ref="S107">MAX(IF(K:K&gt;0,K:K))</f>
+        <v>82032</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" s="50">
+        <v>44736</v>
+      </c>
+      <c r="B108" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="C108" s="5">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="D108" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E108" s="26">
+        <v>55233</v>
+      </c>
+      <c r="F108" s="7">
+        <v>97089</v>
+      </c>
+      <c r="G108" s="7">
+        <v>2</v>
+      </c>
+      <c r="H108" s="7">
+        <v>6</v>
+      </c>
       <c r="I108" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>41856</v>
       </c>
       <c r="J108" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="K108" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
+        <v>54456</v>
+      </c>
+      <c r="M108" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N108" s="30">
+        <f>AVERAGEIF(D:D,"&lt;&gt;0")</f>
+        <v>33.918181818181822</v>
+      </c>
+      <c r="O108" s="31">
+        <f>AVERAGEIF(G:G,"&lt;&gt;0")</f>
+        <v>2.766990291262136</v>
+      </c>
+      <c r="P108" s="31">
+        <f>AVERAGEIF(H:H,"&lt;&gt;0")</f>
+        <v>10.296296296296296</v>
+      </c>
+      <c r="Q108" s="31">
+        <f>AVERAGEIF(I:I,"&lt;&gt;0")</f>
+        <v>40983.209523809521</v>
+      </c>
+      <c r="R108" s="31">
+        <f>AVERAGEIF(J:J,"&lt;&gt;0")</f>
+        <v>19623.333333333332</v>
+      </c>
+      <c r="S108" s="31">
+        <f>AVERAGEIF(K:K,"&gt;30000")</f>
+        <v>60639.209523809521</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="60"/>
+      <c r="B109" s="5">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="C109" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D109" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E109" s="7">
+        <v>97089</v>
+      </c>
+      <c r="F109" s="7">
+        <v>139204</v>
+      </c>
+      <c r="G109" s="7">
+        <v>2</v>
+      </c>
+      <c r="H109" s="7">
+        <v>9</v>
+      </c>
       <c r="I109" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>42115</v>
       </c>
       <c r="J109" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>16380</v>
       </c>
       <c r="K109" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
+        <v>58495</v>
+      </c>
+      <c r="M109" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N109" s="32">
+        <f>MAX(D:D)</f>
+        <v>52</v>
+      </c>
+      <c r="O109" s="33" cm="1">
+        <f t="array" ref="O109">MIN(IF(G:G&gt;0,G:G))</f>
+        <v>1</v>
+      </c>
+      <c r="P109" s="33" cm="1">
+        <f t="array" ref="P109">MIN(IF(H:H&gt;0,H:H))</f>
+        <v>3</v>
+      </c>
+      <c r="Q109" s="33" cm="1">
+        <f t="array" ref="Q109">MIN(IF(I:I&gt;0,I:I))</f>
+        <v>38042</v>
+      </c>
+      <c r="R109" s="33" cm="1">
+        <f t="array" ref="R109">MIN(IF(J:J&gt;0,J:J))</f>
+        <v>10080</v>
+      </c>
+      <c r="S109" s="33" cm="1">
+        <f t="array" ref="S109">MIN(IF(K:K&gt;30000,K:K))</f>
+        <v>50158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" s="51"/>
+      <c r="B110" s="5">
+        <v>0.64097222222222217</v>
+      </c>
+      <c r="C110" s="5">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="D110" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E110" s="7">
+        <v>139204</v>
+      </c>
+      <c r="F110" s="7">
+        <v>179881</v>
+      </c>
+      <c r="G110" s="7">
+        <v>3</v>
+      </c>
+      <c r="H110" s="7">
+        <v>3</v>
+      </c>
       <c r="I110" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>40677</v>
       </c>
       <c r="J110" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>11340</v>
       </c>
       <c r="K110" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
+        <v>52017</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="50">
+        <v>44737</v>
+      </c>
+      <c r="B111" s="5">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="C111" s="5">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D111" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E111" s="26">
+        <v>192773</v>
+      </c>
+      <c r="F111" s="7">
+        <v>234378</v>
+      </c>
+      <c r="G111" s="7">
+        <v>4</v>
+      </c>
+      <c r="H111" s="7">
+        <v>8</v>
+      </c>
       <c r="I111" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>41605</v>
       </c>
       <c r="J111" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20160</v>
       </c>
       <c r="K111" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
+        <v>61765</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="51"/>
+      <c r="B112" s="5">
+        <v>0.97430555555555554</v>
+      </c>
+      <c r="C112" s="5">
+        <v>0.99097222222222225</v>
+      </c>
+      <c r="D112" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E112" s="26">
+        <v>258129</v>
+      </c>
+      <c r="F112" s="7">
+        <v>298820</v>
+      </c>
+      <c r="G112" s="7">
+        <v>5</v>
+      </c>
+      <c r="H112" s="7">
+        <v>6</v>
+      </c>
       <c r="I112" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>40691</v>
       </c>
       <c r="J112" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>20160</v>
       </c>
       <c r="K112" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>60851</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -11784,7 +12104,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+      <c r="A114" s="41"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="6"/>
@@ -11793,26 +12113,512 @@
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
       <c r="I114" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I114:I136" si="13">IF(SUM(F114-E114)&lt;0,"",SUM(F114-E114))</f>
         <v>0</v>
       </c>
       <c r="J114" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="J114:J136" si="14">IF(SUM(H114*1260+G114*2520)&lt;0,"",SUM(H114*1260+G114*2520))</f>
         <v>0</v>
       </c>
       <c r="K114" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="K114:K136" si="15">SUM(I114,J114)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="41"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K115" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="41"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K116" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="41"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K117" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="41"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K118" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="41"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K119" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="41"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K120" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="41"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K121" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="41"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K122" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="41"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K123" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="41"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K124" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="41"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K125" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="41"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K126" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="41"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K127" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="41"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K128" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="41"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K129" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="41"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K130" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="41"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K131" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="41"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K132" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="41"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K133" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="41"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J134" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K134" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="26"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J135" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K135" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J136" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K136" s="7">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="O82:P82"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="N82:N83"/>
+  <mergeCells count="48">
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="Q105:S105"/>
+    <mergeCell ref="N105:N106"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A97"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="M105:M106"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A51:A52"/>
@@ -11823,7 +12629,10 @@
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A66:A67"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A44:A47"/>
     <mergeCell ref="A1:A2"/>
@@ -11840,22 +12649,25 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A108:A110"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A87:A88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="33" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="between">
       <formula>1</formula>
-      <formula>$N$85</formula>
+      <formula>$N$108</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="greaterThan">
-      <formula>$N$85</formula>
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="greaterThan">
+      <formula>$N$108</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Other/狗粮计算-挖矿.xlsx
+++ b/Other/狗粮计算-挖矿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vesugier\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9502889-ACC5-40DC-84AA-F0159A6594AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A0DD27-8149-4AEA-A5D1-471B8797E0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -803,6 +803,9 @@
     <xf numFmtId="58" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -810,6 +813,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,24 +833,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="8" fillId="6" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -848,8 +842,11 @@
     <xf numFmtId="176" fontId="8" fillId="6" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -858,6 +855,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4517,35 +4517,35 @@
       <c r="D1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
       <c r="J1" s="42" t="s">
         <v>31</v>
       </c>
       <c r="K1" s="42"/>
       <c r="L1" s="42"/>
       <c r="M1" s="42"/>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="54"/>
-      <c r="T1" s="52" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="55"/>
+      <c r="T1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="55"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
@@ -4556,7 +4556,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="46"/>
-      <c r="E2" s="59"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="12" t="s">
         <v>17</v>
       </c>
@@ -4596,11 +4596,11 @@
       <c r="R2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="61"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="63"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="58"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="50">
@@ -4655,7 +4655,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6">
@@ -4713,19 +4713,19 @@
         <f t="array" ref="T4">MIN(IF(D:D&gt;0,D:D))</f>
         <v>20</v>
       </c>
-      <c r="U4" s="64">
+      <c r="U4" s="62">
         <f>AVERAGEIF(D:D,"&lt;&gt;0")</f>
         <v>28.3125</v>
       </c>
-      <c r="V4" s="65"/>
-      <c r="W4" s="66"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="64"/>
       <c r="X4" s="14">
         <f>MAX(D:D)</f>
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="5">
         <v>4.5833333333333337E-2</v>
       </c>
@@ -4784,16 +4784,16 @@
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="T5" s="52" t="s">
+      <c r="T5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="55"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="5">
         <v>0.36458333333333331</v>
       </c>
@@ -4851,14 +4851,14 @@
         <f t="shared" si="1"/>
         <v>297</v>
       </c>
-      <c r="T6" s="61"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="63"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="58"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="5">
         <v>0.3972222222222222</v>
       </c>
@@ -4933,7 +4933,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="5">
         <v>0.59375</v>
       </c>
@@ -5013,7 +5013,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="5">
         <v>0.9375</v>
       </c>
@@ -5071,16 +5071,16 @@
         <f t="shared" si="1"/>
         <v>318</v>
       </c>
-      <c r="T9" s="55" t="s">
+      <c r="T9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="57"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="61"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="5">
         <v>0.9604166666666667</v>
       </c>
@@ -5668,13 +5668,13 @@
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="T17" s="55" t="s">
+      <c r="T17" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="57"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="61"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="50">
@@ -5752,7 +5752,7 @@
       <c r="X18" s="11"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="5">
         <v>0.88402777777777775</v>
       </c>
@@ -5951,7 +5951,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="5">
         <v>0.41388888888888892</v>
       </c>
@@ -7707,6 +7707,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A18:A20"/>
@@ -7723,13 +7730,6 @@
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="U4:W4"/>
     <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:D1048576">
@@ -7759,8 +7759,8 @@
   <dimension ref="A1:S136"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F119" sqref="F119"/>
+      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A121" sqref="A121:A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7791,19 +7791,19 @@
       <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="55" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="52" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
@@ -7847,7 +7847,7 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D112" si="0">HOUR(SUM(C3-B3))*60+MINUTE(SUM(C3-B3))</f>
+        <f t="shared" ref="D3:D122" si="0">HOUR(SUM(C3-B3))*60+MINUTE(SUM(C3-B3))</f>
         <v>36</v>
       </c>
       <c r="E3" s="7"/>
@@ -7872,7 +7872,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67">
+      <c r="A4" s="70">
         <v>44693</v>
       </c>
       <c r="B4" s="5">
@@ -7907,7 +7907,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="5">
         <v>0.64652777777777781</v>
       </c>
@@ -7944,7 +7944,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="5">
         <v>0.7583333333333333</v>
       </c>
@@ -7981,7 +7981,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67">
+      <c r="A7" s="70">
         <v>44694</v>
       </c>
       <c r="B7" s="5">
@@ -8016,7 +8016,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="5">
         <v>0.29930555555555555</v>
       </c>
@@ -8053,7 +8053,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="5">
         <v>0.69236111111111109</v>
       </c>
@@ -8090,7 +8090,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67">
+      <c r="A10" s="70">
         <v>44695</v>
       </c>
       <c r="B10" s="5">
@@ -8129,7 +8129,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="5">
         <v>0.3347222222222222</v>
       </c>
@@ -8166,7 +8166,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="5">
         <v>0.79027777777777775</v>
       </c>
@@ -8203,7 +8203,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67">
+      <c r="A13" s="70">
         <v>44696</v>
       </c>
       <c r="B13" s="5">
@@ -8242,7 +8242,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="5">
         <v>0.42222222222222222</v>
       </c>
@@ -8279,7 +8279,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="5">
         <v>0.45833333333333331</v>
       </c>
@@ -8316,7 +8316,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="5">
         <v>0.96250000000000002</v>
       </c>
@@ -8384,7 +8384,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67">
+      <c r="A18" s="70">
         <v>44698</v>
       </c>
       <c r="B18" s="5">
@@ -8423,7 +8423,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="5">
         <v>8.2638888888888887E-2</v>
       </c>
@@ -8460,7 +8460,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="5">
         <v>0.19722222222222222</v>
       </c>
@@ -8497,7 +8497,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="5">
         <v>0.27708333333333335</v>
       </c>
@@ -8534,7 +8534,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="5">
         <v>0.43958333333333338</v>
       </c>
@@ -8571,7 +8571,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67">
+      <c r="A23" s="70">
         <v>44699</v>
       </c>
       <c r="B23" s="5">
@@ -8610,7 +8610,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="5">
         <v>0.98263888888888884</v>
       </c>
@@ -8647,7 +8647,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67">
+      <c r="A25" s="70">
         <v>44700</v>
       </c>
       <c r="B25" s="5">
@@ -8686,7 +8686,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="5">
         <v>0.16944444444444443</v>
       </c>
@@ -8723,7 +8723,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="5">
         <v>0.38958333333333334</v>
       </c>
@@ -8763,7 +8763,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="5">
         <v>0.43958333333333338</v>
       </c>
@@ -8800,7 +8800,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67">
+      <c r="A29" s="70">
         <v>44701</v>
       </c>
       <c r="B29" s="5">
@@ -8839,7 +8839,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="5">
         <v>0.89513888888888893</v>
       </c>
@@ -8876,7 +8876,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="5">
         <v>0.92638888888888893</v>
       </c>
@@ -8913,7 +8913,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67">
+      <c r="A32" s="70">
         <v>44703</v>
       </c>
       <c r="B32" s="5">
@@ -8952,7 +8952,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="5">
         <v>0.34791666666666665</v>
       </c>
@@ -8989,7 +8989,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="5">
         <v>0.38750000000000001</v>
       </c>
@@ -9026,7 +9026,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
+      <c r="A35" s="70"/>
       <c r="B35" s="5">
         <v>0.9458333333333333</v>
       </c>
@@ -9094,7 +9094,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="5">
         <v>0.35625000000000001</v>
       </c>
@@ -9207,7 +9207,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="5">
         <v>0.23055555555555554</v>
       </c>
@@ -9396,7 +9396,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="5">
         <v>0.17430555555555557</v>
       </c>
@@ -9433,7 +9433,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="5">
         <v>0.20972222222222223</v>
       </c>
@@ -9546,7 +9546,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="5">
         <v>0.51874999999999993</v>
       </c>
@@ -9774,7 +9774,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="5">
         <v>0.24305555555555555</v>
       </c>
@@ -9963,7 +9963,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="60"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="5">
         <v>0.40208333333333335</v>
       </c>
@@ -10304,7 +10304,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="60"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="5">
         <v>0.18541666666666667</v>
       </c>
@@ -10417,7 +10417,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="60"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="5">
         <v>0.19236111111111112</v>
       </c>
@@ -10454,7 +10454,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="60"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="5">
         <v>0.22291666666666665</v>
       </c>
@@ -10606,7 +10606,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="60"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="5">
         <v>0.20416666666666669</v>
       </c>
@@ -10910,7 +10910,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="60"/>
+      <c r="A85" s="52"/>
       <c r="B85" s="5">
         <v>0.4069444444444445</v>
       </c>
@@ -11329,7 +11329,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="60"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -11442,7 +11442,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="60"/>
+      <c r="A99" s="52"/>
       <c r="B99" s="5">
         <v>0.4770833333333333</v>
       </c>
@@ -11516,7 +11516,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="67">
+      <c r="A101" s="70">
         <v>44733</v>
       </c>
       <c r="B101" s="5">
@@ -11555,7 +11555,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="67"/>
+      <c r="A102" s="70"/>
       <c r="B102" s="5">
         <v>0.96250000000000002</v>
       </c>
@@ -11705,23 +11705,23 @@
       </c>
       <c r="M105" s="43" t="str">
         <f>COUNTIF(D:D,"&gt;0")&amp;"场"</f>
-        <v>110场</v>
+        <v>120场</v>
       </c>
       <c r="N105" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="O105" s="68" t="s">
+      <c r="O105" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="P105" s="69"/>
-      <c r="Q105" s="68" t="s">
+      <c r="P105" s="68"/>
+      <c r="Q105" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="R105" s="70"/>
-      <c r="S105" s="69"/>
+      <c r="R105" s="69"/>
+      <c r="S105" s="68"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="60"/>
+      <c r="A106" s="52"/>
       <c r="B106" s="5">
         <v>0.70347222222222217</v>
       </c>
@@ -11881,31 +11881,31 @@
       </c>
       <c r="N108" s="30">
         <f>AVERAGEIF(D:D,"&lt;&gt;0")</f>
-        <v>33.918181818181822</v>
+        <v>33.674999999999997</v>
       </c>
       <c r="O108" s="31">
         <f>AVERAGEIF(G:G,"&lt;&gt;0")</f>
-        <v>2.766990291262136</v>
+        <v>2.7345132743362832</v>
       </c>
       <c r="P108" s="31">
         <f>AVERAGEIF(H:H,"&lt;&gt;0")</f>
-        <v>10.296296296296296</v>
+        <v>10.152542372881356</v>
       </c>
       <c r="Q108" s="31">
         <f>AVERAGEIF(I:I,"&lt;&gt;0")</f>
-        <v>40983.209523809521</v>
+        <v>41004.991304347823</v>
       </c>
       <c r="R108" s="31">
         <f>AVERAGEIF(J:J,"&lt;&gt;0")</f>
-        <v>19623.333333333332</v>
+        <v>19391.186440677968</v>
       </c>
       <c r="S108" s="31">
         <f>AVERAGEIF(K:K,"&gt;30000")</f>
-        <v>60639.209523809521</v>
+        <v>60419.947826086958</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="60"/>
+      <c r="A109" s="52"/>
       <c r="B109" s="5">
         <v>0.61944444444444446</v>
       </c>
@@ -11961,7 +11961,7 @@
       </c>
       <c r="R109" s="33" cm="1">
         <f t="array" ref="R109">MIN(IF(J:J&gt;0,J:J))</f>
-        <v>10080</v>
+        <v>8820</v>
       </c>
       <c r="S109" s="33" cm="1">
         <f t="array" ref="S109">MIN(IF(K:K&gt;30000,K:K))</f>
@@ -12082,223 +12082,383 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
+      <c r="A113" s="40">
+        <v>44738</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="C113" s="5">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="D113" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E113" s="26">
+        <v>65767</v>
+      </c>
+      <c r="F113" s="7">
+        <v>108348</v>
+      </c>
+      <c r="G113" s="7">
+        <v>3</v>
+      </c>
+      <c r="H113" s="7">
+        <v>9</v>
+      </c>
       <c r="I113" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>42581</v>
       </c>
       <c r="J113" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="K113" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>61481</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="41"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
+      <c r="A114" s="50">
+        <v>44739</v>
+      </c>
+      <c r="B114" s="5">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C114" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D114" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E114" s="26">
+        <v>18419</v>
+      </c>
+      <c r="F114" s="7">
+        <v>59720</v>
+      </c>
+      <c r="G114" s="7">
+        <v>2</v>
+      </c>
+      <c r="H114" s="7">
+        <v>5</v>
+      </c>
       <c r="I114" s="7">
         <f t="shared" ref="I114:I136" si="13">IF(SUM(F114-E114)&lt;0,"",SUM(F114-E114))</f>
-        <v>0</v>
+        <v>41301</v>
       </c>
       <c r="J114" s="7">
         <f t="shared" ref="J114:J136" si="14">IF(SUM(H114*1260+G114*2520)&lt;0,"",SUM(H114*1260+G114*2520))</f>
-        <v>0</v>
+        <v>11340</v>
       </c>
       <c r="K114" s="7">
         <f t="shared" ref="K114:K136" si="15">SUM(I114,J114)</f>
-        <v>0</v>
+        <v>52641</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="41"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
+      <c r="A115" s="51"/>
+      <c r="B115" s="5">
+        <v>0.98263888888888884</v>
+      </c>
+      <c r="C115" s="5">
+        <v>1.0125</v>
+      </c>
+      <c r="D115" s="6">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E115" s="26">
+        <v>18278</v>
+      </c>
+      <c r="F115" s="7">
+        <v>59332</v>
+      </c>
+      <c r="G115" s="7">
+        <v>2</v>
+      </c>
+      <c r="H115" s="7">
+        <v>14</v>
+      </c>
       <c r="I115" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>41054</v>
       </c>
       <c r="J115" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>22680</v>
       </c>
       <c r="K115" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>63734</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="41"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
+      <c r="A116" s="50">
+        <v>44740</v>
+      </c>
+      <c r="B116" s="5">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="C116" s="5">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="D116" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E116" s="26">
+        <v>59332</v>
+      </c>
+      <c r="F116" s="7">
+        <v>101098</v>
+      </c>
+      <c r="G116" s="7">
+        <v>1</v>
+      </c>
+      <c r="H116" s="7">
+        <v>13</v>
+      </c>
       <c r="I116" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>41766</v>
       </c>
       <c r="J116" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="K116" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>60666</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="41"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
+      <c r="A117" s="51"/>
+      <c r="B117" s="5">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="C117" s="5">
+        <v>0.82777777777777783</v>
+      </c>
+      <c r="D117" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E117" s="26">
+        <v>112034</v>
+      </c>
+      <c r="F117" s="7">
+        <v>153260</v>
+      </c>
+      <c r="G117" s="7">
+        <v>4</v>
+      </c>
+      <c r="H117" s="7">
+        <v>8</v>
+      </c>
       <c r="I117" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>41226</v>
       </c>
       <c r="J117" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20160</v>
       </c>
       <c r="K117" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>61386</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="41"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="26"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
+      <c r="A118" s="50">
+        <v>44741</v>
+      </c>
+      <c r="B118" s="5">
+        <v>0.67847222222222225</v>
+      </c>
+      <c r="C118" s="5">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D118" s="6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E118" s="26">
+        <v>18793</v>
+      </c>
+      <c r="F118" s="7">
+        <v>60344</v>
+      </c>
+      <c r="G118" s="7">
+        <v>1</v>
+      </c>
+      <c r="H118" s="7">
+        <v>5</v>
+      </c>
       <c r="I118" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>41551</v>
       </c>
       <c r="J118" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>8820</v>
       </c>
       <c r="K118" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>50371</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="41"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="26"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
+      <c r="A119" s="52"/>
+      <c r="B119" s="5">
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="C119" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D119" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E119" s="26">
+        <v>60044</v>
+      </c>
+      <c r="F119" s="7">
+        <v>100253</v>
+      </c>
+      <c r="G119" s="7">
+        <v>2</v>
+      </c>
+      <c r="H119" s="7">
+        <v>8</v>
+      </c>
       <c r="I119" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>40209</v>
       </c>
       <c r="J119" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>15120</v>
       </c>
       <c r="K119" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>55329</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="41"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
+      <c r="A120" s="51"/>
+      <c r="B120" s="5">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="C120" s="5">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D120" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E120" s="7">
+        <v>100253</v>
+      </c>
+      <c r="F120" s="7">
+        <v>141846</v>
+      </c>
+      <c r="G120" s="7">
+        <v>2</v>
+      </c>
+      <c r="H120" s="7">
+        <v>8</v>
+      </c>
       <c r="I120" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>41593</v>
       </c>
       <c r="J120" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>15120</v>
       </c>
       <c r="K120" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>56713</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="41"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="26"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
+      <c r="A121" s="50">
+        <v>44742</v>
+      </c>
+      <c r="B121" s="5">
+        <v>0.72638888888888886</v>
+      </c>
+      <c r="C121" s="5">
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="D121" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E121" s="26">
+        <v>35731</v>
+      </c>
+      <c r="F121" s="7">
+        <v>76684</v>
+      </c>
+      <c r="G121" s="7">
+        <v>3</v>
+      </c>
+      <c r="H121" s="7">
+        <v>8</v>
+      </c>
       <c r="I121" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>40953</v>
       </c>
       <c r="J121" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>17640</v>
       </c>
       <c r="K121" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>58593</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="41"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
+      <c r="A122" s="51"/>
+      <c r="B122" s="5">
+        <v>0.79583333333333339</v>
+      </c>
+      <c r="C122" s="5">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="D122" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E122" s="26">
+        <v>35104</v>
+      </c>
+      <c r="F122" s="7">
+        <v>75207</v>
+      </c>
+      <c r="G122" s="7">
+        <v>4</v>
+      </c>
+      <c r="H122" s="7">
+        <v>8</v>
+      </c>
       <c r="I122" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>40103</v>
       </c>
       <c r="J122" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20160</v>
       </c>
       <c r="K122" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>60263</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -12610,26 +12770,20 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="Q105:S105"/>
-    <mergeCell ref="N105:N106"/>
+  <mergeCells count="52">
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A87:A88"/>
     <mergeCell ref="A93:A94"/>
     <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="M105:M106"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A66:A67"/>
@@ -12646,19 +12800,29 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A98:A100"/>
     <mergeCell ref="A103:A104"/>
     <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="Q105:S105"/>
+    <mergeCell ref="N105:N106"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="M105:M106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:D1048576">

--- a/Other/狗粮计算-挖矿.xlsx
+++ b/Other/狗粮计算-挖矿.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vesugier\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A0DD27-8149-4AEA-A5D1-471B8797E0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0BC36F-251E-4534-8430-618AD43E6A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -760,12 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -851,10 +845,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2676,77 +2670,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="49" t="str">
+      <c r="O1" s="47" t="str">
         <f>COUNTIF(G:G,"&gt;0")&amp;"趟"</f>
         <v>23趟</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49" t="s">
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="48"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="12" t="s">
         <v>5</v>
       </c>
@@ -2756,11 +2750,11 @@
       <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
       <c r="R2" s="22" t="s">
         <v>5</v>
       </c>
@@ -2770,7 +2764,7 @@
       <c r="T2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="49"/>
+      <c r="U2" s="47"/>
       <c r="W2" s="12" t="s">
         <v>63</v>
       </c>
@@ -4507,56 +4501,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="45" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="42" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="55"/>
-      <c r="T1" s="53" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="53"/>
+      <c r="T1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="55"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="53"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="66"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="12" t="s">
         <v>17</v>
       </c>
@@ -4596,14 +4590,14 @@
       <c r="R2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="56"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="58"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="56"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="50">
+      <c r="A3" s="48">
         <v>44679</v>
       </c>
       <c r="B3" s="5"/>
@@ -4645,17 +4639,17 @@
       <c r="T3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="42" t="s">
+      <c r="U3" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
       <c r="X3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6">
@@ -4713,19 +4707,19 @@
         <f t="array" ref="T4">MIN(IF(D:D&gt;0,D:D))</f>
         <v>20</v>
       </c>
-      <c r="U4" s="62">
+      <c r="U4" s="60">
         <f>AVERAGEIF(D:D,"&lt;&gt;0")</f>
         <v>28.3125</v>
       </c>
-      <c r="V4" s="63"/>
-      <c r="W4" s="64"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="62"/>
       <c r="X4" s="14">
         <f>MAX(D:D)</f>
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="5">
         <v>4.5833333333333337E-2</v>
       </c>
@@ -4784,16 +4778,16 @@
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="T5" s="53" t="s">
+      <c r="T5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="55"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="53"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="5">
         <v>0.36458333333333331</v>
       </c>
@@ -4851,14 +4845,14 @@
         <f t="shared" si="1"/>
         <v>297</v>
       </c>
-      <c r="T6" s="56"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="58"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="56"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="5">
         <v>0.3972222222222222</v>
       </c>
@@ -4933,7 +4927,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="5">
         <v>0.59375</v>
       </c>
@@ -5013,7 +5007,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="5">
         <v>0.9375</v>
       </c>
@@ -5071,16 +5065,16 @@
         <f t="shared" si="1"/>
         <v>318</v>
       </c>
-      <c r="T9" s="59" t="s">
+      <c r="T9" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="61"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="59"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="5">
         <v>0.9604166666666667</v>
       </c>
@@ -5155,7 +5149,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="5">
         <v>0.98125000000000007</v>
       </c>
@@ -5235,7 +5229,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="50">
+      <c r="A12" s="48">
         <v>44680</v>
       </c>
       <c r="B12" s="5">
@@ -5295,16 +5289,16 @@
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
-      <c r="T12" s="42" t="s">
+      <c r="T12" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="5">
         <v>0.98749999999999993</v>
       </c>
@@ -5362,11 +5356,11 @@
         <f t="shared" si="1"/>
         <v>318</v>
       </c>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -5528,7 +5522,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="50">
+      <c r="A16" s="48">
         <v>44685</v>
       </c>
       <c r="B16" s="5">
@@ -5610,7 +5604,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="5">
         <v>0.84722222222222221</v>
       </c>
@@ -5668,16 +5662,16 @@
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="T17" s="59" t="s">
+      <c r="T17" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="61"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="59"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="50">
+      <c r="A18" s="48">
         <v>44686</v>
       </c>
       <c r="B18" s="5">
@@ -5752,7 +5746,7 @@
       <c r="X18" s="11"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="5">
         <v>0.88402777777777775</v>
       </c>
@@ -5829,7 +5823,7 @@
       <c r="X19" s="18"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="5">
         <v>0.90486111111111101</v>
       </c>
@@ -5889,7 +5883,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50">
+      <c r="A21" s="48">
         <v>44688</v>
       </c>
       <c r="B21" s="5">
@@ -5951,7 +5945,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="5">
         <v>0.41388888888888892</v>
       </c>
@@ -6011,7 +6005,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="5">
         <v>0.93541666666666667</v>
       </c>
@@ -6071,7 +6065,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50">
+      <c r="A24" s="48">
         <v>44689</v>
       </c>
       <c r="B24" s="5">
@@ -6134,7 +6128,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="5">
         <v>0.8979166666666667</v>
       </c>
@@ -6195,7 +6189,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50">
+      <c r="A26" s="48">
         <v>44690</v>
       </c>
       <c r="B26" s="5">
@@ -6257,7 +6251,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="5">
         <v>0.8256944444444444</v>
       </c>
@@ -6320,7 +6314,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50">
+      <c r="A28" s="48">
         <v>44691</v>
       </c>
       <c r="B28" s="5">
@@ -6382,7 +6376,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="5">
         <v>0.9472222222222223</v>
       </c>
@@ -6438,7 +6432,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50">
+      <c r="A30" s="48">
         <v>44693</v>
       </c>
       <c r="B30" s="5">
@@ -6500,7 +6494,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="5">
         <v>0.81874999999999998</v>
       </c>
@@ -6908,7 +6902,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6">
@@ -6946,7 +6940,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6">
@@ -6984,7 +6978,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6">
@@ -7022,7 +7016,7 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6">
@@ -7060,7 +7054,7 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6">
@@ -7098,7 +7092,7 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6">
@@ -7136,7 +7130,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6">
@@ -7174,7 +7168,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6">
@@ -7212,7 +7206,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6">
@@ -7250,7 +7244,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6">
@@ -7288,7 +7282,7 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6">
@@ -7326,7 +7320,7 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="6">
@@ -7364,7 +7358,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="6">
@@ -7402,7 +7396,7 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="6">
@@ -7440,7 +7434,7 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6">
@@ -7478,7 +7472,7 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6">
@@ -7516,7 +7510,7 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6">
@@ -7554,7 +7548,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
+      <c r="A55" s="38"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="6">
@@ -7592,7 +7586,7 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="6">
@@ -7630,7 +7624,7 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
+      <c r="A57" s="38"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="6">
@@ -7668,7 +7662,7 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="6">
@@ -7756,11 +7750,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFBCF39-BB4C-47DB-8068-B14EA7E51C6D}">
-  <dimension ref="A1:S136"/>
+  <dimension ref="A1:S158"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A121" sqref="A121:A122"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7781,39 +7775,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="59" t="s">
+      <c r="F1" s="58"/>
+      <c r="G1" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="53" t="s">
+      <c r="H1" s="58"/>
+      <c r="I1" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="3" t="s">
         <v>43</v>
       </c>
@@ -7837,7 +7831,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
+      <c r="A3" s="39">
         <v>44692</v>
       </c>
       <c r="B3" s="5">
@@ -7847,7 +7841,7 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D122" si="0">HOUR(SUM(C3-B3))*60+MINUTE(SUM(C3-B3))</f>
+        <f t="shared" ref="D3:D144" si="0">HOUR(SUM(C3-B3))*60+MINUTE(SUM(C3-B3))</f>
         <v>36</v>
       </c>
       <c r="E3" s="7"/>
@@ -7872,7 +7866,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70">
+      <c r="A4" s="68">
         <v>44693</v>
       </c>
       <c r="B4" s="5">
@@ -7907,7 +7901,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="5">
         <v>0.64652777777777781</v>
       </c>
@@ -7944,7 +7938,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="5">
         <v>0.7583333333333333</v>
       </c>
@@ -7981,7 +7975,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
+      <c r="A7" s="68">
         <v>44694</v>
       </c>
       <c r="B7" s="5">
@@ -8016,7 +8010,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="5">
         <v>0.29930555555555555</v>
       </c>
@@ -8053,7 +8047,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="5">
         <v>0.69236111111111109</v>
       </c>
@@ -8090,7 +8084,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70">
+      <c r="A10" s="68">
         <v>44695</v>
       </c>
       <c r="B10" s="5">
@@ -8129,7 +8123,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="5">
         <v>0.3347222222222222</v>
       </c>
@@ -8166,7 +8160,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="5">
         <v>0.79027777777777775</v>
       </c>
@@ -8203,7 +8197,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70">
+      <c r="A13" s="68">
         <v>44696</v>
       </c>
       <c r="B13" s="5">
@@ -8242,7 +8236,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="5">
         <v>0.42222222222222222</v>
       </c>
@@ -8279,7 +8273,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="5">
         <v>0.45833333333333331</v>
       </c>
@@ -8316,7 +8310,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="5">
         <v>0.96250000000000002</v>
       </c>
@@ -8345,7 +8339,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="A17" s="39">
         <v>44697</v>
       </c>
       <c r="B17" s="5">
@@ -8384,7 +8378,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70">
+      <c r="A18" s="68">
         <v>44698</v>
       </c>
       <c r="B18" s="5">
@@ -8423,7 +8417,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="5">
         <v>8.2638888888888887E-2</v>
       </c>
@@ -8460,7 +8454,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="5">
         <v>0.19722222222222222</v>
       </c>
@@ -8497,7 +8491,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="5">
         <v>0.27708333333333335</v>
       </c>
@@ -8534,7 +8528,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="5">
         <v>0.43958333333333338</v>
       </c>
@@ -8571,7 +8565,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="70">
+      <c r="A23" s="68">
         <v>44699</v>
       </c>
       <c r="B23" s="5">
@@ -8610,7 +8604,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="5">
         <v>0.98263888888888884</v>
       </c>
@@ -8647,7 +8641,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="70">
+      <c r="A25" s="68">
         <v>44700</v>
       </c>
       <c r="B25" s="5">
@@ -8686,7 +8680,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="5">
         <v>0.16944444444444443</v>
       </c>
@@ -8723,7 +8717,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="5">
         <v>0.38958333333333334</v>
       </c>
@@ -8763,7 +8757,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="5">
         <v>0.43958333333333338</v>
       </c>
@@ -8800,7 +8794,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="70">
+      <c r="A29" s="68">
         <v>44701</v>
       </c>
       <c r="B29" s="5">
@@ -8839,7 +8833,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="5">
         <v>0.89513888888888893</v>
       </c>
@@ -8876,7 +8870,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="5">
         <v>0.92638888888888893</v>
       </c>
@@ -8913,7 +8907,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="70">
+      <c r="A32" s="68">
         <v>44703</v>
       </c>
       <c r="B32" s="5">
@@ -8952,7 +8946,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="5">
         <v>0.34791666666666665</v>
       </c>
@@ -8989,7 +8983,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="5">
         <v>0.38750000000000001</v>
       </c>
@@ -9026,7 +9020,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="5">
         <v>0.9458333333333333</v>
       </c>
@@ -9055,7 +9049,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="50">
+      <c r="A36" s="48">
         <v>44704</v>
       </c>
       <c r="B36" s="5">
@@ -9094,7 +9088,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="5">
         <v>0.35625000000000001</v>
       </c>
@@ -9131,7 +9125,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="5">
         <v>0.90069444444444446</v>
       </c>
@@ -9168,7 +9162,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50">
+      <c r="A39" s="48">
         <v>44705</v>
       </c>
       <c r="B39" s="5">
@@ -9207,7 +9201,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="5">
         <v>0.23055555555555554</v>
       </c>
@@ -9244,7 +9238,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="5">
         <v>0.29375000000000001</v>
       </c>
@@ -9281,7 +9275,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="50">
+      <c r="A42" s="48">
         <v>44706</v>
       </c>
       <c r="B42" s="5">
@@ -9320,7 +9314,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="5">
         <v>0.20277777777777781</v>
       </c>
@@ -9357,7 +9351,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="50">
+      <c r="A44" s="48">
         <v>44707</v>
       </c>
       <c r="B44" s="5">
@@ -9396,7 +9390,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="5">
         <v>0.17430555555555557</v>
       </c>
@@ -9433,7 +9427,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="5">
         <v>0.20972222222222223</v>
       </c>
@@ -9470,7 +9464,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="5">
         <v>0.90347222222222223</v>
       </c>
@@ -9507,7 +9501,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="50">
+      <c r="A48" s="48">
         <v>44708</v>
       </c>
       <c r="B48" s="5">
@@ -9546,7 +9540,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="5">
         <v>0.51874999999999993</v>
       </c>
@@ -9583,7 +9577,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="5">
         <v>0.9</v>
       </c>
@@ -9620,7 +9614,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="50">
+      <c r="A51" s="48">
         <v>44709</v>
       </c>
       <c r="B51" s="5">
@@ -9659,7 +9653,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="5">
         <v>0.87847222222222221</v>
       </c>
@@ -9696,7 +9690,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="38">
+      <c r="A53" s="39">
         <v>44710</v>
       </c>
       <c r="B53" s="5">
@@ -9735,7 +9729,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="50">
+      <c r="A54" s="48">
         <v>44711</v>
       </c>
       <c r="B54" s="5">
@@ -9774,7 +9768,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="52"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="5">
         <v>0.24305555555555555</v>
       </c>
@@ -9811,7 +9805,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
+      <c r="A56" s="49"/>
       <c r="B56" s="5">
         <v>0.28680555555555554</v>
       </c>
@@ -9848,7 +9842,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="50">
+      <c r="A57" s="48">
         <v>44712</v>
       </c>
       <c r="B57" s="5">
@@ -9887,7 +9881,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="5">
         <v>0.9458333333333333</v>
       </c>
@@ -9924,7 +9918,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="50">
+      <c r="A59" s="48">
         <v>44713</v>
       </c>
       <c r="B59" s="5">
@@ -9963,7 +9957,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="5">
         <v>0.40208333333333335</v>
       </c>
@@ -10000,7 +9994,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
+      <c r="A61" s="49"/>
       <c r="B61" s="5">
         <v>0.45069444444444445</v>
       </c>
@@ -10037,7 +10031,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="50">
+      <c r="A62" s="48">
         <v>44714</v>
       </c>
       <c r="B62" s="5">
@@ -10076,7 +10070,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
+      <c r="A63" s="49"/>
       <c r="B63" s="5">
         <v>0.63541666666666663</v>
       </c>
@@ -10113,7 +10107,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="50">
+      <c r="A64" s="48">
         <v>44715</v>
       </c>
       <c r="B64" s="5">
@@ -10152,7 +10146,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
+      <c r="A65" s="49"/>
       <c r="B65" s="5">
         <v>0.21527777777777779</v>
       </c>
@@ -10189,7 +10183,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="50">
+      <c r="A66" s="48">
         <v>44716</v>
       </c>
       <c r="B66" s="5">
@@ -10228,7 +10222,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
+      <c r="A67" s="49"/>
       <c r="B67" s="5">
         <v>0.19930555555555554</v>
       </c>
@@ -10265,7 +10259,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="50">
+      <c r="A68" s="48">
         <v>44717</v>
       </c>
       <c r="B68" s="5">
@@ -10304,7 +10298,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="52"/>
+      <c r="A69" s="50"/>
       <c r="B69" s="5">
         <v>0.18541666666666667</v>
       </c>
@@ -10341,7 +10335,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
+      <c r="A70" s="49"/>
       <c r="B70" s="5">
         <v>0.5131944444444444</v>
       </c>
@@ -10378,7 +10372,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="50">
+      <c r="A71" s="48">
         <v>44718</v>
       </c>
       <c r="B71" s="5">
@@ -10417,7 +10411,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="52"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="5">
         <v>0.19236111111111112</v>
       </c>
@@ -10454,7 +10448,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="52"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="5">
         <v>0.22291666666666665</v>
       </c>
@@ -10491,7 +10485,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="50">
+      <c r="A74" s="48">
         <v>44719</v>
       </c>
       <c r="B74" s="5">
@@ -10530,7 +10524,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
+      <c r="A75" s="49"/>
       <c r="B75" s="5">
         <v>0.52500000000000002</v>
       </c>
@@ -10567,7 +10561,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="50">
+      <c r="A76" s="48">
         <v>44720</v>
       </c>
       <c r="B76" s="5">
@@ -10606,7 +10600,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="52"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="5">
         <v>0.20416666666666669</v>
       </c>
@@ -10643,7 +10637,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
+      <c r="A78" s="49"/>
       <c r="B78" s="5">
         <v>0.23124999999999998</v>
       </c>
@@ -10680,7 +10674,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="50">
+      <c r="A79" s="48">
         <v>44721</v>
       </c>
       <c r="B79" s="5">
@@ -10719,7 +10713,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="51"/>
+      <c r="A80" s="49"/>
       <c r="B80" s="5">
         <v>0.54652777777777783</v>
       </c>
@@ -10756,7 +10750,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="50">
+      <c r="A81" s="48">
         <v>44722</v>
       </c>
       <c r="B81" s="5">
@@ -10795,7 +10789,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
+      <c r="A82" s="49"/>
       <c r="B82" s="5">
         <v>0.58263888888888882</v>
       </c>
@@ -10871,7 +10865,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="50">
+      <c r="A84" s="48">
         <v>44724</v>
       </c>
       <c r="B84" s="5">
@@ -10910,7 +10904,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="52"/>
+      <c r="A85" s="50"/>
       <c r="B85" s="5">
         <v>0.4069444444444445</v>
       </c>
@@ -10947,7 +10941,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
+      <c r="A86" s="49"/>
       <c r="B86" s="5">
         <v>0.63888888888888895</v>
       </c>
@@ -10984,7 +10978,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="50">
+      <c r="A87" s="48">
         <v>44726</v>
       </c>
       <c r="B87" s="5">
@@ -11023,7 +11017,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
+      <c r="A88" s="49"/>
       <c r="B88" s="5">
         <v>0.52430555555555558</v>
       </c>
@@ -11099,7 +11093,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="50">
+      <c r="A90" s="48">
         <v>44728</v>
       </c>
       <c r="B90" s="5">
@@ -11138,7 +11132,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
+      <c r="A91" s="49"/>
       <c r="B91" s="5">
         <v>0.51458333333333328</v>
       </c>
@@ -11214,7 +11208,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="50">
+      <c r="A93" s="48">
         <v>44730</v>
       </c>
       <c r="B93" s="5">
@@ -11253,7 +11247,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
+      <c r="A94" s="49"/>
       <c r="B94" s="5">
         <v>0.8520833333333333</v>
       </c>
@@ -11290,7 +11284,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="50">
+      <c r="A95" s="48">
         <v>44731</v>
       </c>
       <c r="B95" s="5">
@@ -11329,7 +11323,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="52"/>
+      <c r="A96" s="50"/>
       <c r="B96" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -11365,8 +11359,8 @@
         <v>54185</v>
       </c>
     </row>
-    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="49"/>
       <c r="B97" s="5">
         <v>0.61805555555555558</v>
       </c>
@@ -11402,8 +11396,8 @@
         <v>52509</v>
       </c>
     </row>
-    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="50">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="48">
         <v>44732</v>
       </c>
       <c r="B98" s="5">
@@ -11441,8 +11435,8 @@
         <v>62252</v>
       </c>
     </row>
-    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="52"/>
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="50"/>
       <c r="B99" s="5">
         <v>0.4770833333333333</v>
       </c>
@@ -11478,8 +11472,8 @@
         <v>56170</v>
       </c>
     </row>
-    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="51"/>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="49"/>
       <c r="B100" s="5">
         <v>0.49652777777777773</v>
       </c>
@@ -11515,8 +11509,8 @@
         <v>62678</v>
       </c>
     </row>
-    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="70">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="68">
         <v>44733</v>
       </c>
       <c r="B101" s="5">
@@ -11554,8 +11548,8 @@
         <v>69893</v>
       </c>
     </row>
-    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="70"/>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="68"/>
       <c r="B102" s="5">
         <v>0.96250000000000002</v>
       </c>
@@ -11591,8 +11585,8 @@
         <v>52999</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="50">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="48">
         <v>44734</v>
       </c>
       <c r="B103" s="5">
@@ -11630,8 +11624,8 @@
         <v>58203</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="51"/>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="49"/>
       <c r="B104" s="5">
         <v>0.8534722222222223</v>
       </c>
@@ -11665,8 +11659,8 @@
         <v>50699</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="50">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="48">
         <v>44735</v>
       </c>
       <c r="B105" s="5">
@@ -11703,25 +11697,9 @@
         <f t="shared" si="12"/>
         <v>50158</v>
       </c>
-      <c r="M105" s="43" t="str">
-        <f>COUNTIF(D:D,"&gt;0")&amp;"场"</f>
-        <v>120场</v>
-      </c>
-      <c r="N105" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="O105" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="P105" s="68"/>
-      <c r="Q105" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="R105" s="69"/>
-      <c r="S105" s="68"/>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="52"/>
+    </row>
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="50"/>
       <c r="B106" s="5">
         <v>0.70347222222222217</v>
       </c>
@@ -11756,26 +11734,9 @@
         <f t="shared" si="12"/>
         <v>53270</v>
       </c>
-      <c r="M106" s="44"/>
-      <c r="N106" s="44"/>
-      <c r="O106" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="P106" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q106" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R106" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="S106" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="51"/>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="49"/>
       <c r="B107" s="5">
         <v>0.72222222222222221</v>
       </c>
@@ -11810,36 +11771,9 @@
         <f t="shared" si="12"/>
         <v>64896</v>
       </c>
-      <c r="M107" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="N107" s="28" cm="1">
-        <f t="array" ref="N107">MIN(IF(D:D&gt;0,D:D))</f>
-        <v>23</v>
-      </c>
-      <c r="O107" s="29" cm="1">
-        <f t="array" ref="O107">MAX(IF(G:G&gt;0,G:G))</f>
-        <v>7</v>
-      </c>
-      <c r="P107" s="29" cm="1">
-        <f t="array" ref="P107">MAX(IF(H:H&gt;0,H:H))</f>
-        <v>18</v>
-      </c>
-      <c r="Q107" s="29" cm="1">
-        <f t="array" ref="Q107">MAX(IF(I:I&gt;0,I:I))</f>
-        <v>43596</v>
-      </c>
-      <c r="R107" s="29" cm="1">
-        <f t="array" ref="R107">MAX(IF(J:J&gt;0,J:J))</f>
-        <v>40320</v>
-      </c>
-      <c r="S107" s="29" cm="1">
-        <f t="array" ref="S107">MAX(IF(K:K&gt;0,K:K))</f>
-        <v>82032</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="50">
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="48">
         <v>44736</v>
       </c>
       <c r="B108" s="5">
@@ -11876,36 +11810,9 @@
         <f t="shared" si="12"/>
         <v>54456</v>
       </c>
-      <c r="M108" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="N108" s="30">
-        <f>AVERAGEIF(D:D,"&lt;&gt;0")</f>
-        <v>33.674999999999997</v>
-      </c>
-      <c r="O108" s="31">
-        <f>AVERAGEIF(G:G,"&lt;&gt;0")</f>
-        <v>2.7345132743362832</v>
-      </c>
-      <c r="P108" s="31">
-        <f>AVERAGEIF(H:H,"&lt;&gt;0")</f>
-        <v>10.152542372881356</v>
-      </c>
-      <c r="Q108" s="31">
-        <f>AVERAGEIF(I:I,"&lt;&gt;0")</f>
-        <v>41004.991304347823</v>
-      </c>
-      <c r="R108" s="31">
-        <f>AVERAGEIF(J:J,"&lt;&gt;0")</f>
-        <v>19391.186440677968</v>
-      </c>
-      <c r="S108" s="31">
-        <f>AVERAGEIF(K:K,"&gt;30000")</f>
-        <v>60419.947826086958</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="52"/>
+    </row>
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="50"/>
       <c r="B109" s="5">
         <v>0.61944444444444446</v>
       </c>
@@ -11940,36 +11847,9 @@
         <f t="shared" si="12"/>
         <v>58495</v>
       </c>
-      <c r="M109" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="N109" s="32">
-        <f>MAX(D:D)</f>
-        <v>52</v>
-      </c>
-      <c r="O109" s="33" cm="1">
-        <f t="array" ref="O109">MIN(IF(G:G&gt;0,G:G))</f>
-        <v>1</v>
-      </c>
-      <c r="P109" s="33" cm="1">
-        <f t="array" ref="P109">MIN(IF(H:H&gt;0,H:H))</f>
-        <v>3</v>
-      </c>
-      <c r="Q109" s="33" cm="1">
-        <f t="array" ref="Q109">MIN(IF(I:I&gt;0,I:I))</f>
-        <v>38042</v>
-      </c>
-      <c r="R109" s="33" cm="1">
-        <f t="array" ref="R109">MIN(IF(J:J&gt;0,J:J))</f>
-        <v>8820</v>
-      </c>
-      <c r="S109" s="33" cm="1">
-        <f t="array" ref="S109">MIN(IF(K:K&gt;30000,K:K))</f>
-        <v>50158</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="51"/>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="49"/>
       <c r="B110" s="5">
         <v>0.64097222222222217</v>
       </c>
@@ -12005,8 +11885,8 @@
         <v>52017</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="50">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="48">
         <v>44737</v>
       </c>
       <c r="B111" s="5">
@@ -12044,8 +11924,8 @@
         <v>61765</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="51"/>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="49"/>
       <c r="B112" s="5">
         <v>0.97430555555555554</v>
       </c>
@@ -12081,8 +11961,8 @@
         <v>60851</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="39">
         <v>44738</v>
       </c>
       <c r="B113" s="5">
@@ -12120,8 +12000,8 @@
         <v>61481</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="50">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="48">
         <v>44739</v>
       </c>
       <c r="B114" s="5">
@@ -12147,20 +12027,20 @@
         <v>5</v>
       </c>
       <c r="I114" s="7">
-        <f t="shared" ref="I114:I136" si="13">IF(SUM(F114-E114)&lt;0,"",SUM(F114-E114))</f>
+        <f t="shared" ref="I114:I134" si="13">IF(SUM(F114-E114)&lt;0,"",SUM(F114-E114))</f>
         <v>41301</v>
       </c>
       <c r="J114" s="7">
-        <f t="shared" ref="J114:J136" si="14">IF(SUM(H114*1260+G114*2520)&lt;0,"",SUM(H114*1260+G114*2520))</f>
+        <f t="shared" ref="J114:J134" si="14">IF(SUM(H114*1260+G114*2520)&lt;0,"",SUM(H114*1260+G114*2520))</f>
         <v>11340</v>
       </c>
       <c r="K114" s="7">
-        <f t="shared" ref="K114:K136" si="15">SUM(I114,J114)</f>
+        <f t="shared" ref="K114:K134" si="15">SUM(I114,J114)</f>
         <v>52641</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="51"/>
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="49"/>
       <c r="B115" s="5">
         <v>0.98263888888888884</v>
       </c>
@@ -12196,8 +12076,8 @@
         <v>63734</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="50">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="48">
         <v>44740</v>
       </c>
       <c r="B116" s="5">
@@ -12235,8 +12115,8 @@
         <v>60666</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="51"/>
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="49"/>
       <c r="B117" s="5">
         <v>0.80763888888888891</v>
       </c>
@@ -12272,8 +12152,8 @@
         <v>61386</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="50">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="48">
         <v>44741</v>
       </c>
       <c r="B118" s="5">
@@ -12311,8 +12191,8 @@
         <v>50371</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="52"/>
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="50"/>
       <c r="B119" s="5">
         <v>0.74722222222222223</v>
       </c>
@@ -12348,8 +12228,8 @@
         <v>55329</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="51"/>
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="49"/>
       <c r="B120" s="5">
         <v>0.7715277777777777</v>
       </c>
@@ -12385,8 +12265,8 @@
         <v>56713</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="50">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="48">
         <v>44742</v>
       </c>
       <c r="B121" s="5">
@@ -12424,8 +12304,8 @@
         <v>58593</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="51"/>
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="49"/>
       <c r="B122" s="5">
         <v>0.79583333333333339</v>
       </c>
@@ -12461,324 +12341,1265 @@
         <v>60263</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="41"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="26"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="48">
+        <v>44744</v>
+      </c>
+      <c r="B123" s="5">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="C123" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="D123" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E123" s="26">
+        <v>353092</v>
+      </c>
+      <c r="F123" s="7">
+        <v>393151</v>
+      </c>
+      <c r="G123" s="7">
+        <v>3</v>
+      </c>
+      <c r="H123" s="7">
+        <v>9</v>
+      </c>
       <c r="I123" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>40059</v>
       </c>
       <c r="J123" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="K123" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="41"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="26"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
+        <v>58959</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="49"/>
+      <c r="B124" s="5">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="C124" s="5">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="D124" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E124" s="7">
+        <v>393151</v>
+      </c>
+      <c r="F124" s="7">
+        <v>432799</v>
+      </c>
+      <c r="G124" s="7">
+        <v>3</v>
+      </c>
+      <c r="H124" s="7">
+        <v>11</v>
+      </c>
       <c r="I124" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>39648</v>
       </c>
       <c r="J124" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>21420</v>
       </c>
       <c r="K124" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="41"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="26"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
+        <v>61068</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="48">
+        <v>44745</v>
+      </c>
+      <c r="B125" s="5">
+        <v>0.60486111111111118</v>
+      </c>
+      <c r="C125" s="5">
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="D125" s="6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E125" s="26">
+        <v>7669</v>
+      </c>
+      <c r="F125" s="7">
+        <v>48422</v>
+      </c>
+      <c r="G125" s="7">
+        <v>3</v>
+      </c>
+      <c r="H125" s="7">
+        <v>12</v>
+      </c>
       <c r="I125" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>40753</v>
       </c>
       <c r="J125" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>22680</v>
       </c>
       <c r="K125" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="41"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="26"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
+        <v>63433</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="49"/>
+      <c r="B126" s="5">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="C126" s="5">
+        <v>0.78680555555555554</v>
+      </c>
+      <c r="D126" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E126" s="26">
+        <v>25742</v>
+      </c>
+      <c r="F126" s="7">
+        <v>67017</v>
+      </c>
+      <c r="G126" s="7">
+        <v>2</v>
+      </c>
+      <c r="H126" s="7">
+        <v>12</v>
+      </c>
       <c r="I126" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>41275</v>
       </c>
       <c r="J126" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20160</v>
       </c>
       <c r="K126" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="41"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
+        <v>61435</v>
+      </c>
+      <c r="M126" s="41" t="str">
+        <f>COUNTIF(D:D,"&gt;0")&amp;"场"</f>
+        <v>142场</v>
+      </c>
+      <c r="N126" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O126" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="P126" s="67"/>
+      <c r="Q126" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="R126" s="66"/>
+      <c r="S126" s="67"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="39">
+        <v>44746</v>
+      </c>
+      <c r="B127" s="5">
+        <v>0.90416666666666667</v>
+      </c>
+      <c r="C127" s="5">
+        <v>0.93680555555555556</v>
+      </c>
+      <c r="D127" s="6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E127" s="26">
+        <v>83454</v>
+      </c>
+      <c r="F127" s="7">
+        <v>125406</v>
+      </c>
+      <c r="G127" s="7">
+        <v>1</v>
+      </c>
+      <c r="H127" s="7">
+        <v>10</v>
+      </c>
       <c r="I127" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>41952</v>
       </c>
       <c r="J127" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>15120</v>
       </c>
       <c r="K127" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="41"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="26"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
+        <v>57072</v>
+      </c>
+      <c r="M127" s="42"/>
+      <c r="N127" s="42"/>
+      <c r="O127" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P127" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q127" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="R127" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="S127" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="68">
+        <v>44747</v>
+      </c>
+      <c r="B128" s="5">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="C128" s="5">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="D128" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E128" s="26">
+        <v>101686</v>
+      </c>
+      <c r="F128" s="7">
+        <v>139599</v>
+      </c>
+      <c r="G128" s="7">
+        <v>4</v>
+      </c>
+      <c r="H128" s="7">
+        <v>11</v>
+      </c>
       <c r="I128" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>37913</v>
       </c>
       <c r="J128" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>23940</v>
       </c>
       <c r="K128" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="41"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
+        <v>61853</v>
+      </c>
+      <c r="M128" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="N128" s="28" cm="1">
+        <f t="array" ref="N128">MIN(IF(D:D&gt;0,D:D))</f>
+        <v>22</v>
+      </c>
+      <c r="O128" s="29" cm="1">
+        <f t="array" ref="O128">MAX(IF(G:G&gt;0,G:G))</f>
+        <v>7</v>
+      </c>
+      <c r="P128" s="29" cm="1">
+        <f t="array" ref="P128">MAX(IF(H:H&gt;0,H:H))</f>
+        <v>18</v>
+      </c>
+      <c r="Q128" s="29" cm="1">
+        <f t="array" ref="Q128">MAX(IF(I:I&gt;0,I:I))</f>
+        <v>43596</v>
+      </c>
+      <c r="R128" s="29" cm="1">
+        <f t="array" ref="R128">MAX(IF(J:J&gt;0,J:J))</f>
+        <v>40320</v>
+      </c>
+      <c r="S128" s="29" cm="1">
+        <f t="array" ref="S128">MAX(IF(K:K&gt;0,K:K))</f>
+        <v>82032</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="68"/>
+      <c r="B129" s="5">
+        <v>0.12430555555555556</v>
+      </c>
+      <c r="C129" s="5">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D129" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E129" s="26">
+        <v>56967</v>
+      </c>
+      <c r="F129" s="7">
+        <v>98124</v>
+      </c>
+      <c r="G129" s="7">
+        <v>2</v>
+      </c>
+      <c r="H129" s="7">
+        <v>9</v>
+      </c>
       <c r="I129" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>41157</v>
       </c>
       <c r="J129" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>16380</v>
       </c>
       <c r="K129" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
+        <v>57537</v>
+      </c>
+      <c r="M129" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N129" s="30">
+        <f>AVERAGEIF(D:D,"&lt;&gt;0")</f>
+        <v>33.028169014084504</v>
+      </c>
+      <c r="O129" s="31">
+        <f>AVERAGEIF(G:G,"&lt;&gt;0")</f>
+        <v>2.7537313432835822</v>
+      </c>
+      <c r="P129" s="31">
+        <f>AVERAGEIF(H:H,"&lt;&gt;0")</f>
+        <v>10.142857142857142</v>
+      </c>
+      <c r="Q129" s="31">
+        <f>AVERAGEIF(I:I,"&lt;&gt;0")</f>
+        <v>40966.452554744523</v>
+      </c>
+      <c r="R129" s="31">
+        <f>AVERAGEIF(J:J,"&lt;&gt;0")</f>
+        <v>19422</v>
+      </c>
+      <c r="S129" s="31">
+        <f>AVERAGEIF(K:K,"&gt;30000")</f>
+        <v>60409.0802919708</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="68"/>
+      <c r="B130" s="5">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="C130" s="5">
+        <v>0.9868055555555556</v>
+      </c>
+      <c r="D130" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E130" s="26">
+        <v>354027</v>
+      </c>
+      <c r="F130" s="7">
+        <v>395451</v>
+      </c>
+      <c r="G130" s="7">
+        <v>2</v>
+      </c>
+      <c r="H130" s="7">
+        <v>6</v>
+      </c>
       <c r="I130" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>41424</v>
       </c>
       <c r="J130" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="K130" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="26"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
+        <v>54024</v>
+      </c>
+      <c r="M130" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N130" s="32">
+        <f>MAX(D:D)</f>
+        <v>52</v>
+      </c>
+      <c r="O130" s="33" cm="1">
+        <f t="array" ref="O130">MIN(IF(G:G&gt;0,G:G))</f>
+        <v>1</v>
+      </c>
+      <c r="P130" s="33" cm="1">
+        <f t="array" ref="P130">MIN(IF(H:H&gt;0,H:H))</f>
+        <v>3</v>
+      </c>
+      <c r="Q130" s="33" cm="1">
+        <f t="array" ref="Q130">MIN(IF(I:I&gt;0,I:I))</f>
+        <v>35090</v>
+      </c>
+      <c r="R130" s="33" cm="1">
+        <f t="array" ref="R130">MIN(IF(J:J&gt;0,J:J))</f>
+        <v>8820</v>
+      </c>
+      <c r="S130" s="33" cm="1">
+        <f t="array" ref="S130">MIN(IF(K:K&gt;30000,K:K))</f>
+        <v>49722</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" s="48">
+        <v>44748</v>
+      </c>
+      <c r="B131" s="5">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="C131" s="5">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="D131" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E131" s="26">
+        <v>365859</v>
+      </c>
+      <c r="F131" s="7">
+        <v>406737</v>
+      </c>
+      <c r="G131" s="7">
+        <v>2</v>
+      </c>
+      <c r="H131" s="7">
+        <v>8</v>
+      </c>
       <c r="I131" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>40878</v>
       </c>
       <c r="J131" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>15120</v>
       </c>
       <c r="K131" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
+        <v>55998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" s="50"/>
+      <c r="B132" s="5">
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="C132" s="5">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="D132" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E132" s="26">
+        <v>279397</v>
+      </c>
+      <c r="F132" s="7">
+        <v>320993</v>
+      </c>
+      <c r="G132" s="7">
+        <v>4</v>
+      </c>
+      <c r="H132" s="7">
+        <v>11</v>
+      </c>
       <c r="I132" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>41596</v>
       </c>
       <c r="J132" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>23940</v>
       </c>
       <c r="K132" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="41"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" s="49"/>
+      <c r="B133" s="5">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="C133" s="5">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="D133" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E133" s="26">
+        <v>450338</v>
+      </c>
+      <c r="F133" s="7">
+        <v>491924</v>
+      </c>
+      <c r="G133" s="7">
+        <v>5</v>
+      </c>
+      <c r="H133" s="7">
+        <v>6</v>
+      </c>
       <c r="I133" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>41586</v>
       </c>
       <c r="J133" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20160</v>
       </c>
       <c r="K133" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="26"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
+        <v>61746</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" s="48">
+        <v>44750</v>
+      </c>
+      <c r="B134" s="5">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="C134" s="5">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="D134" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E134" s="26">
+        <v>250367</v>
+      </c>
+      <c r="F134" s="7">
+        <v>290009</v>
+      </c>
+      <c r="G134" s="7">
+        <v>2</v>
+      </c>
+      <c r="H134" s="7">
+        <v>4</v>
+      </c>
       <c r="I134" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>39642</v>
       </c>
       <c r="J134" s="7">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10080</v>
       </c>
       <c r="K134" s="7">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="26"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
+        <v>49722</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" s="49"/>
+      <c r="B135" s="5">
+        <v>0.86944444444444446</v>
+      </c>
+      <c r="C135" s="5">
+        <v>0.88680555555555562</v>
+      </c>
+      <c r="D135" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E135" s="26">
+        <v>82121</v>
+      </c>
+      <c r="F135" s="7">
+        <v>123456</v>
+      </c>
+      <c r="G135" s="7">
+        <v>4</v>
+      </c>
+      <c r="H135" s="7">
+        <v>8</v>
+      </c>
       <c r="I135" s="7">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" ref="I135:I158" si="16">IF(SUM(F135-E135)&lt;0,"",SUM(F135-E135))</f>
+        <v>41335</v>
       </c>
       <c r="J135" s="7">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" ref="J135:J158" si="17">IF(SUM(H135*1260+G135*2520)&lt;0,"",SUM(H135*1260+G135*2520))</f>
+        <v>20160</v>
       </c>
       <c r="K135" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="26"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
+        <f t="shared" ref="K135:K158" si="18">SUM(I135,J135)</f>
+        <v>61495</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" s="39">
+        <v>44751</v>
+      </c>
+      <c r="B136" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C136" s="5">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D136" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E136" s="26">
+        <v>27805</v>
+      </c>
+      <c r="F136" s="7">
+        <v>69051</v>
+      </c>
+      <c r="G136" s="7">
+        <v>1</v>
+      </c>
+      <c r="H136" s="7">
+        <v>9</v>
+      </c>
       <c r="I136" s="7">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>41246</v>
       </c>
       <c r="J136" s="7">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>13860</v>
       </c>
       <c r="K136" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
+        <v>55106</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="48">
+        <v>44752</v>
+      </c>
+      <c r="B137" s="5">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="C137" s="5">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="D137" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E137" s="26">
+        <v>273915</v>
+      </c>
+      <c r="F137" s="7">
+        <v>314711</v>
+      </c>
+      <c r="G137" s="7">
+        <v>1</v>
+      </c>
+      <c r="H137" s="7">
+        <v>17</v>
+      </c>
+      <c r="I137" s="7">
+        <f t="shared" si="16"/>
+        <v>40796</v>
+      </c>
+      <c r="J137" s="7">
+        <f t="shared" si="17"/>
+        <v>23940</v>
+      </c>
+      <c r="K137" s="7">
+        <f t="shared" si="18"/>
+        <v>64736</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" s="49"/>
+      <c r="B138" s="5">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="C138" s="5">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="D138" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E138" s="7">
+        <v>314711</v>
+      </c>
+      <c r="F138" s="7">
+        <v>356412</v>
+      </c>
+      <c r="G138" s="7">
+        <v>1</v>
+      </c>
+      <c r="H138" s="7">
+        <v>16</v>
+      </c>
+      <c r="I138" s="7">
+        <f t="shared" si="16"/>
+        <v>41701</v>
+      </c>
+      <c r="J138" s="7">
+        <f t="shared" si="17"/>
+        <v>22680</v>
+      </c>
+      <c r="K138" s="7">
+        <f t="shared" si="18"/>
+        <v>64381</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" s="48">
+        <v>44753</v>
+      </c>
+      <c r="B139" s="5">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="C139" s="5">
+        <v>0.8520833333333333</v>
+      </c>
+      <c r="D139" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E139" s="26">
+        <v>90540</v>
+      </c>
+      <c r="F139" s="7">
+        <v>131605</v>
+      </c>
+      <c r="G139" s="7">
+        <v>5</v>
+      </c>
+      <c r="H139" s="7">
+        <v>12</v>
+      </c>
+      <c r="I139" s="7">
+        <f t="shared" si="16"/>
+        <v>41065</v>
+      </c>
+      <c r="J139" s="7">
+        <f t="shared" si="17"/>
+        <v>27720</v>
+      </c>
+      <c r="K139" s="7">
+        <f t="shared" si="18"/>
+        <v>68785</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="50"/>
+      <c r="B140" s="5">
+        <v>0.93819444444444444</v>
+      </c>
+      <c r="C140" s="5">
+        <v>0.95763888888888893</v>
+      </c>
+      <c r="D140" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E140" s="26">
+        <v>65153</v>
+      </c>
+      <c r="F140" s="7">
+        <v>107920</v>
+      </c>
+      <c r="G140" s="7">
+        <v>4</v>
+      </c>
+      <c r="H140" s="7">
+        <v>11</v>
+      </c>
+      <c r="I140" s="7">
+        <f t="shared" si="16"/>
+        <v>42767</v>
+      </c>
+      <c r="J140" s="7">
+        <f t="shared" si="17"/>
+        <v>23940</v>
+      </c>
+      <c r="K140" s="7">
+        <f t="shared" si="18"/>
+        <v>66707</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="49"/>
+      <c r="B141" s="5">
+        <v>0.96805555555555556</v>
+      </c>
+      <c r="C141" s="5">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="D141" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E141" s="7">
+        <v>107920</v>
+      </c>
+      <c r="F141" s="7">
+        <v>148064</v>
+      </c>
+      <c r="G141" s="7">
+        <v>6</v>
+      </c>
+      <c r="H141" s="7">
+        <v>9</v>
+      </c>
+      <c r="I141" s="7">
+        <f t="shared" si="16"/>
+        <v>40144</v>
+      </c>
+      <c r="J141" s="7">
+        <f t="shared" si="17"/>
+        <v>26460</v>
+      </c>
+      <c r="K141" s="7">
+        <f t="shared" si="18"/>
+        <v>66604</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="48">
+        <v>44755</v>
+      </c>
+      <c r="B142" s="5">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="C142" s="5">
+        <v>0.79791666666666661</v>
+      </c>
+      <c r="D142" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E142" s="26">
+        <v>2453</v>
+      </c>
+      <c r="F142" s="7">
+        <v>44741</v>
+      </c>
+      <c r="G142" s="7">
+        <v>1</v>
+      </c>
+      <c r="H142" s="7">
+        <v>9</v>
+      </c>
+      <c r="I142" s="7">
+        <f t="shared" si="16"/>
+        <v>42288</v>
+      </c>
+      <c r="J142" s="7">
+        <f t="shared" si="17"/>
+        <v>13860</v>
+      </c>
+      <c r="K142" s="7">
+        <f t="shared" si="18"/>
+        <v>56148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="50"/>
+      <c r="B143" s="5">
+        <v>0.83611111111111114</v>
+      </c>
+      <c r="C143" s="5">
+        <v>0.85902777777777783</v>
+      </c>
+      <c r="D143" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E143" s="26">
+        <v>1</v>
+      </c>
+      <c r="F143" s="7">
+        <v>42516</v>
+      </c>
+      <c r="G143" s="7">
+        <v>4</v>
+      </c>
+      <c r="H143" s="7">
+        <v>10</v>
+      </c>
+      <c r="I143" s="7">
+        <f t="shared" si="16"/>
+        <v>42515</v>
+      </c>
+      <c r="J143" s="7">
+        <f t="shared" si="17"/>
+        <v>22680</v>
+      </c>
+      <c r="K143" s="7">
+        <f t="shared" si="18"/>
+        <v>65195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="49"/>
+      <c r="B144" s="5">
+        <v>0.85972222222222217</v>
+      </c>
+      <c r="C144" s="5">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D144" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E144" s="26">
+        <v>42516</v>
+      </c>
+      <c r="F144" s="7">
+        <v>77606</v>
+      </c>
+      <c r="G144" s="7">
+        <v>0</v>
+      </c>
+      <c r="H144" s="7">
+        <v>12</v>
+      </c>
+      <c r="I144" s="7">
+        <f t="shared" si="16"/>
+        <v>35090</v>
+      </c>
+      <c r="J144" s="7">
+        <f t="shared" si="17"/>
+        <v>15120</v>
+      </c>
+      <c r="K144" s="7">
+        <f t="shared" si="18"/>
+        <v>50210</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="39"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J145" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K145" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="39"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J146" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K146" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="39"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J147" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K147" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="39"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J148" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K148" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="39"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="26"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J149" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K149" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="39"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J150" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K150" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="39"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J151" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K151" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="39"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J152" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K152" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="39"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J153" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K153" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="39"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="26"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J154" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K154" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="39"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J155" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K155" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="39"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="26"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J156" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K156" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="39"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J157" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K157" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="39"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="26"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J158" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K158" s="7">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A18:A22"/>
+  <mergeCells count="60">
+    <mergeCell ref="A142:A144"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A68:A70"/>
@@ -12787,6 +13608,13 @@
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A44:A47"/>
     <mergeCell ref="A1:A2"/>
@@ -12800,38 +13628,46 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="O126:P126"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A97"/>
     <mergeCell ref="A103:A104"/>
     <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="Q105:S105"/>
-    <mergeCell ref="N105:N106"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="M105:M106"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="N126:N127"/>
+    <mergeCell ref="M126:M127"/>
+    <mergeCell ref="A128:A130"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="37" operator="between">
       <formula>1</formula>
-      <formula>$N$108</formula>
+      <formula>$N$129</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="greaterThan">
-      <formula>$N$108</formula>
+    <cfRule type="cellIs" dxfId="0" priority="38" operator="greaterThan">
+      <formula>$N$129</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Other/狗粮计算-挖矿.xlsx
+++ b/Other/狗粮计算-挖矿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vesugier\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0BC36F-251E-4534-8430-618AD43E6A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C1460F-EA0D-4E5C-A01E-1761CE1062E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="狗粮" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="106">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,72 @@
     <t>狗粮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>圣遗物副词条机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素精通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素充能效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3档</t>
+  </si>
+  <si>
+    <t>4档</t>
+  </si>
+  <si>
+    <t>理论最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -405,7 +471,7 @@
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,8 +546,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="霞鹜文楷"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,6 +585,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -688,7 +766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -763,6 +841,12 @@
     </xf>
     <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -853,6 +937,18 @@
     </xf>
     <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2650,11 +2746,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,77 +2766,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="47" t="str">
+      <c r="O1" s="49" t="str">
         <f>COUNTIF(G:G,"&gt;0")&amp;"趟"</f>
         <v>23趟</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="W1" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="46"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="12" t="s">
         <v>5</v>
       </c>
@@ -2750,11 +2846,11 @@
       <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
       <c r="R2" s="22" t="s">
         <v>5</v>
       </c>
@@ -2764,7 +2860,7 @@
       <c r="T2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="47"/>
+      <c r="U2" s="49"/>
       <c r="W2" s="12" t="s">
         <v>63</v>
       </c>
@@ -3714,7 +3810,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>44698</v>
       </c>
@@ -3772,7 +3868,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44699</v>
       </c>
@@ -3830,7 +3926,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>44700</v>
       </c>
@@ -3888,7 +3984,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>44702</v>
       </c>
@@ -3944,7 +4040,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>44703</v>
       </c>
@@ -4000,7 +4096,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>44704</v>
       </c>
@@ -4056,7 +4152,7 @@
         <v>4525</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>44705</v>
       </c>
@@ -4098,7 +4194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>44709</v>
       </c>
@@ -4141,8 +4237,16 @@
       <c r="M24" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V24" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>44721</v>
       </c>
@@ -4183,8 +4287,26 @@
       <c r="M25" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V25" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="W25" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="X25" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y25" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z25" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA25" s="72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>44723</v>
       </c>
@@ -4227,8 +4349,26 @@
       <c r="M26" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V26" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="W26" s="73">
+        <v>2.7E-2</v>
+      </c>
+      <c r="X26" s="73">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="Y26" s="73">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Z26" s="73">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="AA26" s="73">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -4253,8 +4393,26 @@
       <c r="M27" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V27" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="W27" s="73">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="X27" s="73">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="Y27" s="73">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="Z27" s="73">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AA27" s="73">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -4279,8 +4437,26 @@
       <c r="M28" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V28" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="W28" s="73">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="X28" s="73">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="Y28" s="73">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="Z28" s="73">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="AA28" s="73">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4305,8 +4481,26 @@
       <c r="M29" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V29" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="W29" s="74">
+        <v>13.62</v>
+      </c>
+      <c r="X29" s="74">
+        <v>15.56</v>
+      </c>
+      <c r="Y29" s="74">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="Z29" s="74">
+        <v>19.45</v>
+      </c>
+      <c r="AA29" s="74">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -4331,8 +4525,26 @@
       <c r="M30" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V30" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="W30" s="73">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="X30" s="73">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="Y30" s="73">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="Z30" s="73">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="AA30" s="73">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4357,8 +4569,26 @@
       <c r="M31" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V31" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="W31" s="74">
+        <v>209.13</v>
+      </c>
+      <c r="X31" s="74">
+        <v>239</v>
+      </c>
+      <c r="Y31" s="74">
+        <v>268.88</v>
+      </c>
+      <c r="Z31" s="74">
+        <v>298.75</v>
+      </c>
+      <c r="AA31" s="74">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4383,8 +4613,26 @@
       <c r="M32" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="V32" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="W32" s="73">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="X32" s="73">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="Y32" s="73">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="Z32" s="73">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="AA32" s="73">
+        <v>0.43700000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -4409,8 +4657,26 @@
       <c r="M33" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="V33" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="W33" s="74">
+        <v>16.2</v>
+      </c>
+      <c r="X33" s="74">
+        <v>18.52</v>
+      </c>
+      <c r="Y33" s="74">
+        <v>20.83</v>
+      </c>
+      <c r="Z33" s="74">
+        <v>23.15</v>
+      </c>
+      <c r="AA33" s="74">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4435,9 +4701,48 @@
       <c r="M34" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="V34" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="W34" s="74">
+        <v>16.32</v>
+      </c>
+      <c r="X34" s="74">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="Y34" s="74">
+        <v>20.98</v>
+      </c>
+      <c r="Z34" s="74">
+        <v>23.31</v>
+      </c>
+      <c r="AA34" s="74">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V35" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="W35" s="73">
+        <v>4.53E-2</v>
+      </c>
+      <c r="X35" s="73">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="Y35" s="73">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="Z35" s="73">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="AA35" s="73">
+        <v>0.38900000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="V24:AA24"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
@@ -4501,56 +4806,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="43" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="40" t="s">
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="51" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="53"/>
-      <c r="T1" s="51" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="55"/>
+      <c r="T1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="55"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="49"/>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="64"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="12" t="s">
         <v>17</v>
       </c>
@@ -4590,14 +4895,14 @@
       <c r="R2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="54"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="58"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="48">
+      <c r="A3" s="50">
         <v>44679</v>
       </c>
       <c r="B3" s="5"/>
@@ -4639,17 +4944,17 @@
       <c r="T3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="40" t="s">
+      <c r="U3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
       <c r="X3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6">
@@ -4707,19 +5012,19 @@
         <f t="array" ref="T4">MIN(IF(D:D&gt;0,D:D))</f>
         <v>20</v>
       </c>
-      <c r="U4" s="60">
+      <c r="U4" s="62">
         <f>AVERAGEIF(D:D,"&lt;&gt;0")</f>
         <v>28.3125</v>
       </c>
-      <c r="V4" s="61"/>
-      <c r="W4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="64"/>
       <c r="X4" s="14">
         <f>MAX(D:D)</f>
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="5">
         <v>4.5833333333333337E-2</v>
       </c>
@@ -4778,16 +5083,16 @@
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="T5" s="51" t="s">
+      <c r="T5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="53"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="55"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="5">
         <v>0.36458333333333331</v>
       </c>
@@ -4845,14 +5150,14 @@
         <f t="shared" si="1"/>
         <v>297</v>
       </c>
-      <c r="T6" s="54"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="58"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="5">
         <v>0.3972222222222222</v>
       </c>
@@ -4927,7 +5232,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="5">
         <v>0.59375</v>
       </c>
@@ -5007,7 +5312,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="5">
         <v>0.9375</v>
       </c>
@@ -5065,16 +5370,16 @@
         <f t="shared" si="1"/>
         <v>318</v>
       </c>
-      <c r="T9" s="57" t="s">
+      <c r="T9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="59"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="61"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="5">
         <v>0.9604166666666667</v>
       </c>
@@ -5149,7 +5454,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="5">
         <v>0.98125000000000007</v>
       </c>
@@ -5229,7 +5534,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="50">
         <v>44680</v>
       </c>
       <c r="B12" s="5">
@@ -5289,16 +5594,16 @@
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
-      <c r="T12" s="40" t="s">
+      <c r="T12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="5">
         <v>0.98749999999999993</v>
       </c>
@@ -5356,11 +5661,11 @@
         <f t="shared" si="1"/>
         <v>318</v>
       </c>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -5522,7 +5827,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="48">
+      <c r="A16" s="50">
         <v>44685</v>
       </c>
       <c r="B16" s="5">
@@ -5604,7 +5909,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="5">
         <v>0.84722222222222221</v>
       </c>
@@ -5662,16 +5967,16 @@
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="T17" s="57" t="s">
+      <c r="T17" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="59"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="61"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="48">
+      <c r="A18" s="50">
         <v>44686</v>
       </c>
       <c r="B18" s="5">
@@ -5746,7 +6051,7 @@
       <c r="X18" s="11"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="5">
         <v>0.88402777777777775</v>
       </c>
@@ -5823,7 +6128,7 @@
       <c r="X19" s="18"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="5">
         <v>0.90486111111111101</v>
       </c>
@@ -5883,7 +6188,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
+      <c r="A21" s="50">
         <v>44688</v>
       </c>
       <c r="B21" s="5">
@@ -5945,7 +6250,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="5">
         <v>0.41388888888888892</v>
       </c>
@@ -6005,7 +6310,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="5">
         <v>0.93541666666666667</v>
       </c>
@@ -6065,7 +6370,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48">
+      <c r="A24" s="50">
         <v>44689</v>
       </c>
       <c r="B24" s="5">
@@ -6128,7 +6433,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="5">
         <v>0.8979166666666667</v>
       </c>
@@ -6189,7 +6494,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48">
+      <c r="A26" s="50">
         <v>44690</v>
       </c>
       <c r="B26" s="5">
@@ -6251,7 +6556,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="5">
         <v>0.8256944444444444</v>
       </c>
@@ -6314,7 +6619,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48">
+      <c r="A28" s="50">
         <v>44691</v>
       </c>
       <c r="B28" s="5">
@@ -6376,7 +6681,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="5">
         <v>0.9472222222222223</v>
       </c>
@@ -6432,7 +6737,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48">
+      <c r="A30" s="50">
         <v>44693</v>
       </c>
       <c r="B30" s="5">
@@ -6494,7 +6799,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="5">
         <v>0.81874999999999998</v>
       </c>
@@ -7750,11 +8055,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFBCF39-BB4C-47DB-8068-B14EA7E51C6D}">
-  <dimension ref="A1:S158"/>
+  <dimension ref="A1:S186"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H148" sqref="H148"/>
+      <selection pane="bottomLeft" activeCell="J160" sqref="J160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7775,39 +8080,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="57" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="51" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="3" t="s">
         <v>43</v>
       </c>
@@ -7841,7 +8146,7 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D144" si="0">HOUR(SUM(C3-B3))*60+MINUTE(SUM(C3-B3))</f>
+        <f t="shared" ref="D3:D158" si="0">HOUR(SUM(C3-B3))*60+MINUTE(SUM(C3-B3))</f>
         <v>36</v>
       </c>
       <c r="E3" s="7"/>
@@ -7866,7 +8171,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68">
+      <c r="A4" s="70">
         <v>44693</v>
       </c>
       <c r="B4" s="5">
@@ -7901,7 +8206,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="5">
         <v>0.64652777777777781</v>
       </c>
@@ -7938,7 +8243,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="5">
         <v>0.7583333333333333</v>
       </c>
@@ -7975,7 +8280,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68">
+      <c r="A7" s="70">
         <v>44694</v>
       </c>
       <c r="B7" s="5">
@@ -8010,7 +8315,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="5">
         <v>0.29930555555555555</v>
       </c>
@@ -8047,7 +8352,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="5">
         <v>0.69236111111111109</v>
       </c>
@@ -8084,7 +8389,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68">
+      <c r="A10" s="70">
         <v>44695</v>
       </c>
       <c r="B10" s="5">
@@ -8123,7 +8428,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="5">
         <v>0.3347222222222222</v>
       </c>
@@ -8160,7 +8465,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="5">
         <v>0.79027777777777775</v>
       </c>
@@ -8197,7 +8502,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68">
+      <c r="A13" s="70">
         <v>44696</v>
       </c>
       <c r="B13" s="5">
@@ -8236,7 +8541,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="5">
         <v>0.42222222222222222</v>
       </c>
@@ -8273,7 +8578,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="5">
         <v>0.45833333333333331</v>
       </c>
@@ -8310,7 +8615,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="5">
         <v>0.96250000000000002</v>
       </c>
@@ -8378,7 +8683,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68">
+      <c r="A18" s="70">
         <v>44698</v>
       </c>
       <c r="B18" s="5">
@@ -8417,7 +8722,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="5">
         <v>8.2638888888888887E-2</v>
       </c>
@@ -8454,7 +8759,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="5">
         <v>0.19722222222222222</v>
       </c>
@@ -8491,7 +8796,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="5">
         <v>0.27708333333333335</v>
       </c>
@@ -8528,7 +8833,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="5">
         <v>0.43958333333333338</v>
       </c>
@@ -8565,7 +8870,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="68">
+      <c r="A23" s="70">
         <v>44699</v>
       </c>
       <c r="B23" s="5">
@@ -8604,7 +8909,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="5">
         <v>0.98263888888888884</v>
       </c>
@@ -8641,7 +8946,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="68">
+      <c r="A25" s="70">
         <v>44700</v>
       </c>
       <c r="B25" s="5">
@@ -8680,7 +8985,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="68"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="5">
         <v>0.16944444444444443</v>
       </c>
@@ -8717,7 +9022,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="5">
         <v>0.38958333333333334</v>
       </c>
@@ -8757,7 +9062,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="5">
         <v>0.43958333333333338</v>
       </c>
@@ -8794,7 +9099,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="68">
+      <c r="A29" s="70">
         <v>44701</v>
       </c>
       <c r="B29" s="5">
@@ -8833,7 +9138,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="5">
         <v>0.89513888888888893</v>
       </c>
@@ -8870,7 +9175,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="5">
         <v>0.92638888888888893</v>
       </c>
@@ -8907,7 +9212,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="68">
+      <c r="A32" s="70">
         <v>44703</v>
       </c>
       <c r="B32" s="5">
@@ -8946,7 +9251,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="5">
         <v>0.34791666666666665</v>
       </c>
@@ -8983,7 +9288,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="5">
         <v>0.38750000000000001</v>
       </c>
@@ -9020,7 +9325,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
+      <c r="A35" s="70"/>
       <c r="B35" s="5">
         <v>0.9458333333333333</v>
       </c>
@@ -9049,7 +9354,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48">
+      <c r="A36" s="50">
         <v>44704</v>
       </c>
       <c r="B36" s="5">
@@ -9088,7 +9393,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="5">
         <v>0.35625000000000001</v>
       </c>
@@ -9125,7 +9430,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="5">
         <v>0.90069444444444446</v>
       </c>
@@ -9162,7 +9467,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48">
+      <c r="A39" s="50">
         <v>44705</v>
       </c>
       <c r="B39" s="5">
@@ -9201,7 +9506,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="5">
         <v>0.23055555555555554</v>
       </c>
@@ -9238,7 +9543,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="5">
         <v>0.29375000000000001</v>
       </c>
@@ -9275,7 +9580,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48">
+      <c r="A42" s="50">
         <v>44706</v>
       </c>
       <c r="B42" s="5">
@@ -9314,7 +9619,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="5">
         <v>0.20277777777777781</v>
       </c>
@@ -9351,7 +9656,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48">
+      <c r="A44" s="50">
         <v>44707</v>
       </c>
       <c r="B44" s="5">
@@ -9390,7 +9695,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="5">
         <v>0.17430555555555557</v>
       </c>
@@ -9427,7 +9732,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="5">
         <v>0.20972222222222223</v>
       </c>
@@ -9464,7 +9769,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="5">
         <v>0.90347222222222223</v>
       </c>
@@ -9501,7 +9806,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="48">
+      <c r="A48" s="50">
         <v>44708</v>
       </c>
       <c r="B48" s="5">
@@ -9540,7 +9845,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="5">
         <v>0.51874999999999993</v>
       </c>
@@ -9577,7 +9882,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="5">
         <v>0.9</v>
       </c>
@@ -9614,7 +9919,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="48">
+      <c r="A51" s="50">
         <v>44709</v>
       </c>
       <c r="B51" s="5">
@@ -9653,7 +9958,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="5">
         <v>0.87847222222222221</v>
       </c>
@@ -9729,7 +10034,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="48">
+      <c r="A54" s="50">
         <v>44711</v>
       </c>
       <c r="B54" s="5">
@@ -9768,7 +10073,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="5">
         <v>0.24305555555555555</v>
       </c>
@@ -9805,7 +10110,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="5">
         <v>0.28680555555555554</v>
       </c>
@@ -9842,7 +10147,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="48">
+      <c r="A57" s="50">
         <v>44712</v>
       </c>
       <c r="B57" s="5">
@@ -9881,7 +10186,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="5">
         <v>0.9458333333333333</v>
       </c>
@@ -9918,7 +10223,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="48">
+      <c r="A59" s="50">
         <v>44713</v>
       </c>
       <c r="B59" s="5">
@@ -9957,7 +10262,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="5">
         <v>0.40208333333333335</v>
       </c>
@@ -9994,7 +10299,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="5">
         <v>0.45069444444444445</v>
       </c>
@@ -10031,7 +10336,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="48">
+      <c r="A62" s="50">
         <v>44714</v>
       </c>
       <c r="B62" s="5">
@@ -10070,7 +10375,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="5">
         <v>0.63541666666666663</v>
       </c>
@@ -10107,7 +10412,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="48">
+      <c r="A64" s="50">
         <v>44715</v>
       </c>
       <c r="B64" s="5">
@@ -10146,7 +10451,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="5">
         <v>0.21527777777777779</v>
       </c>
@@ -10183,7 +10488,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="48">
+      <c r="A66" s="50">
         <v>44716</v>
       </c>
       <c r="B66" s="5">
@@ -10222,7 +10527,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="5">
         <v>0.19930555555555554</v>
       </c>
@@ -10259,7 +10564,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="48">
+      <c r="A68" s="50">
         <v>44717</v>
       </c>
       <c r="B68" s="5">
@@ -10298,7 +10603,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="5">
         <v>0.18541666666666667</v>
       </c>
@@ -10335,7 +10640,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
+      <c r="A70" s="51"/>
       <c r="B70" s="5">
         <v>0.5131944444444444</v>
       </c>
@@ -10372,7 +10677,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="48">
+      <c r="A71" s="50">
         <v>44718</v>
       </c>
       <c r="B71" s="5">
@@ -10411,7 +10716,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="5">
         <v>0.19236111111111112</v>
       </c>
@@ -10448,7 +10753,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="50"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="5">
         <v>0.22291666666666665</v>
       </c>
@@ -10485,7 +10790,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="48">
+      <c r="A74" s="50">
         <v>44719</v>
       </c>
       <c r="B74" s="5">
@@ -10524,7 +10829,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="5">
         <v>0.52500000000000002</v>
       </c>
@@ -10561,7 +10866,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="48">
+      <c r="A76" s="50">
         <v>44720</v>
       </c>
       <c r="B76" s="5">
@@ -10600,7 +10905,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="5">
         <v>0.20416666666666669</v>
       </c>
@@ -10637,7 +10942,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
+      <c r="A78" s="51"/>
       <c r="B78" s="5">
         <v>0.23124999999999998</v>
       </c>
@@ -10674,7 +10979,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="48">
+      <c r="A79" s="50">
         <v>44721</v>
       </c>
       <c r="B79" s="5">
@@ -10713,7 +11018,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
+      <c r="A80" s="51"/>
       <c r="B80" s="5">
         <v>0.54652777777777783</v>
       </c>
@@ -10750,7 +11055,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="48">
+      <c r="A81" s="50">
         <v>44722</v>
       </c>
       <c r="B81" s="5">
@@ -10789,7 +11094,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
+      <c r="A82" s="51"/>
       <c r="B82" s="5">
         <v>0.58263888888888882</v>
       </c>
@@ -10865,7 +11170,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="48">
+      <c r="A84" s="50">
         <v>44724</v>
       </c>
       <c r="B84" s="5">
@@ -10904,7 +11209,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="50"/>
+      <c r="A85" s="52"/>
       <c r="B85" s="5">
         <v>0.4069444444444445</v>
       </c>
@@ -10941,7 +11246,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
+      <c r="A86" s="51"/>
       <c r="B86" s="5">
         <v>0.63888888888888895</v>
       </c>
@@ -10978,7 +11283,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="48">
+      <c r="A87" s="50">
         <v>44726</v>
       </c>
       <c r="B87" s="5">
@@ -11017,7 +11322,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
+      <c r="A88" s="51"/>
       <c r="B88" s="5">
         <v>0.52430555555555558</v>
       </c>
@@ -11093,7 +11398,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="48">
+      <c r="A90" s="50">
         <v>44728</v>
       </c>
       <c r="B90" s="5">
@@ -11132,7 +11437,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
+      <c r="A91" s="51"/>
       <c r="B91" s="5">
         <v>0.51458333333333328</v>
       </c>
@@ -11208,7 +11513,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="48">
+      <c r="A93" s="50">
         <v>44730</v>
       </c>
       <c r="B93" s="5">
@@ -11247,7 +11552,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="49"/>
+      <c r="A94" s="51"/>
       <c r="B94" s="5">
         <v>0.8520833333333333</v>
       </c>
@@ -11284,7 +11589,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="48">
+      <c r="A95" s="50">
         <v>44731</v>
       </c>
       <c r="B95" s="5">
@@ -11323,7 +11628,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="50"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="5">
         <v>0.58333333333333337</v>
       </c>
@@ -11360,7 +11665,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
+      <c r="A97" s="51"/>
       <c r="B97" s="5">
         <v>0.61805555555555558</v>
       </c>
@@ -11397,7 +11702,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="48">
+      <c r="A98" s="50">
         <v>44732</v>
       </c>
       <c r="B98" s="5">
@@ -11436,7 +11741,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="50"/>
+      <c r="A99" s="52"/>
       <c r="B99" s="5">
         <v>0.4770833333333333</v>
       </c>
@@ -11473,7 +11778,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="49"/>
+      <c r="A100" s="51"/>
       <c r="B100" s="5">
         <v>0.49652777777777773</v>
       </c>
@@ -11510,7 +11815,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="68">
+      <c r="A101" s="70">
         <v>44733</v>
       </c>
       <c r="B101" s="5">
@@ -11549,7 +11854,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="68"/>
+      <c r="A102" s="70"/>
       <c r="B102" s="5">
         <v>0.96250000000000002</v>
       </c>
@@ -11586,7 +11891,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="48">
+      <c r="A103" s="50">
         <v>44734</v>
       </c>
       <c r="B103" s="5">
@@ -11625,7 +11930,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="49"/>
+      <c r="A104" s="51"/>
       <c r="B104" s="5">
         <v>0.8534722222222223</v>
       </c>
@@ -11660,7 +11965,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="48">
+      <c r="A105" s="50">
         <v>44735</v>
       </c>
       <c r="B105" s="5">
@@ -11699,7 +12004,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="50"/>
+      <c r="A106" s="52"/>
       <c r="B106" s="5">
         <v>0.70347222222222217</v>
       </c>
@@ -11736,7 +12041,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="49"/>
+      <c r="A107" s="51"/>
       <c r="B107" s="5">
         <v>0.72222222222222221</v>
       </c>
@@ -11773,7 +12078,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="48">
+      <c r="A108" s="50">
         <v>44736</v>
       </c>
       <c r="B108" s="5">
@@ -11812,7 +12117,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="50"/>
+      <c r="A109" s="52"/>
       <c r="B109" s="5">
         <v>0.61944444444444446</v>
       </c>
@@ -11849,7 +12154,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="49"/>
+      <c r="A110" s="51"/>
       <c r="B110" s="5">
         <v>0.64097222222222217</v>
       </c>
@@ -11886,7 +12191,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="48">
+      <c r="A111" s="50">
         <v>44737</v>
       </c>
       <c r="B111" s="5">
@@ -11925,7 +12230,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="49"/>
+      <c r="A112" s="51"/>
       <c r="B112" s="5">
         <v>0.97430555555555554</v>
       </c>
@@ -11961,7 +12266,7 @@
         <v>60851</v>
       </c>
     </row>
-    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
         <v>44738</v>
       </c>
@@ -12000,8 +12305,8 @@
         <v>61481</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="48">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="50">
         <v>44739</v>
       </c>
       <c r="B114" s="5">
@@ -12039,8 +12344,8 @@
         <v>52641</v>
       </c>
     </row>
-    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="49"/>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="51"/>
       <c r="B115" s="5">
         <v>0.98263888888888884</v>
       </c>
@@ -12076,8 +12381,8 @@
         <v>63734</v>
       </c>
     </row>
-    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="48">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="50">
         <v>44740</v>
       </c>
       <c r="B116" s="5">
@@ -12115,8 +12420,8 @@
         <v>60666</v>
       </c>
     </row>
-    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="49"/>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="51"/>
       <c r="B117" s="5">
         <v>0.80763888888888891</v>
       </c>
@@ -12152,8 +12457,8 @@
         <v>61386</v>
       </c>
     </row>
-    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="48">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="50">
         <v>44741</v>
       </c>
       <c r="B118" s="5">
@@ -12191,8 +12496,8 @@
         <v>50371</v>
       </c>
     </row>
-    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="50"/>
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="52"/>
       <c r="B119" s="5">
         <v>0.74722222222222223</v>
       </c>
@@ -12228,8 +12533,8 @@
         <v>55329</v>
       </c>
     </row>
-    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="49"/>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="51"/>
       <c r="B120" s="5">
         <v>0.7715277777777777</v>
       </c>
@@ -12265,8 +12570,8 @@
         <v>56713</v>
       </c>
     </row>
-    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="48">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="50">
         <v>44742</v>
       </c>
       <c r="B121" s="5">
@@ -12304,8 +12609,8 @@
         <v>58593</v>
       </c>
     </row>
-    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="49"/>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="51"/>
       <c r="B122" s="5">
         <v>0.79583333333333339</v>
       </c>
@@ -12341,8 +12646,8 @@
         <v>60263</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="48">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="50">
         <v>44744</v>
       </c>
       <c r="B123" s="5">
@@ -12380,8 +12685,8 @@
         <v>58959</v>
       </c>
     </row>
-    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="49"/>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="51"/>
       <c r="B124" s="5">
         <v>0.4145833333333333</v>
       </c>
@@ -12417,8 +12722,8 @@
         <v>61068</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="48">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="50">
         <v>44745</v>
       </c>
       <c r="B125" s="5">
@@ -12456,8 +12761,8 @@
         <v>63433</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="49"/>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="51"/>
       <c r="B126" s="5">
         <v>0.76388888888888884</v>
       </c>
@@ -12492,24 +12797,8 @@
         <f t="shared" si="15"/>
         <v>61435</v>
       </c>
-      <c r="M126" s="41" t="str">
-        <f>COUNTIF(D:D,"&gt;0")&amp;"场"</f>
-        <v>142场</v>
-      </c>
-      <c r="N126" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O126" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="P126" s="67"/>
-      <c r="Q126" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="R126" s="66"/>
-      <c r="S126" s="67"/>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="39">
         <v>44746</v>
       </c>
@@ -12547,26 +12836,9 @@
         <f t="shared" si="15"/>
         <v>57072</v>
       </c>
-      <c r="M127" s="42"/>
-      <c r="N127" s="42"/>
-      <c r="O127" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="P127" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q127" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R127" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="S127" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="68">
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="70">
         <v>44747</v>
       </c>
       <c r="B128" s="5">
@@ -12603,36 +12875,9 @@
         <f t="shared" si="15"/>
         <v>61853</v>
       </c>
-      <c r="M128" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="N128" s="28" cm="1">
-        <f t="array" ref="N128">MIN(IF(D:D&gt;0,D:D))</f>
-        <v>22</v>
-      </c>
-      <c r="O128" s="29" cm="1">
-        <f t="array" ref="O128">MAX(IF(G:G&gt;0,G:G))</f>
-        <v>7</v>
-      </c>
-      <c r="P128" s="29" cm="1">
-        <f t="array" ref="P128">MAX(IF(H:H&gt;0,H:H))</f>
-        <v>18</v>
-      </c>
-      <c r="Q128" s="29" cm="1">
-        <f t="array" ref="Q128">MAX(IF(I:I&gt;0,I:I))</f>
-        <v>43596</v>
-      </c>
-      <c r="R128" s="29" cm="1">
-        <f t="array" ref="R128">MAX(IF(J:J&gt;0,J:J))</f>
-        <v>40320</v>
-      </c>
-      <c r="S128" s="29" cm="1">
-        <f t="array" ref="S128">MAX(IF(K:K&gt;0,K:K))</f>
-        <v>82032</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="68"/>
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="70"/>
       <c r="B129" s="5">
         <v>0.12430555555555556</v>
       </c>
@@ -12667,36 +12912,9 @@
         <f t="shared" si="15"/>
         <v>57537</v>
       </c>
-      <c r="M129" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="N129" s="30">
-        <f>AVERAGEIF(D:D,"&lt;&gt;0")</f>
-        <v>33.028169014084504</v>
-      </c>
-      <c r="O129" s="31">
-        <f>AVERAGEIF(G:G,"&lt;&gt;0")</f>
-        <v>2.7537313432835822</v>
-      </c>
-      <c r="P129" s="31">
-        <f>AVERAGEIF(H:H,"&lt;&gt;0")</f>
-        <v>10.142857142857142</v>
-      </c>
-      <c r="Q129" s="31">
-        <f>AVERAGEIF(I:I,"&lt;&gt;0")</f>
-        <v>40966.452554744523</v>
-      </c>
-      <c r="R129" s="31">
-        <f>AVERAGEIF(J:J,"&lt;&gt;0")</f>
-        <v>19422</v>
-      </c>
-      <c r="S129" s="31">
-        <f>AVERAGEIF(K:K,"&gt;30000")</f>
-        <v>60409.0802919708</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="68"/>
+    </row>
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="70"/>
       <c r="B130" s="5">
         <v>0.96527777777777779</v>
       </c>
@@ -12731,36 +12949,9 @@
         <f t="shared" si="15"/>
         <v>54024</v>
       </c>
-      <c r="M130" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="N130" s="32">
-        <f>MAX(D:D)</f>
-        <v>52</v>
-      </c>
-      <c r="O130" s="33" cm="1">
-        <f t="array" ref="O130">MIN(IF(G:G&gt;0,G:G))</f>
-        <v>1</v>
-      </c>
-      <c r="P130" s="33" cm="1">
-        <f t="array" ref="P130">MIN(IF(H:H&gt;0,H:H))</f>
-        <v>3</v>
-      </c>
-      <c r="Q130" s="33" cm="1">
-        <f t="array" ref="Q130">MIN(IF(I:I&gt;0,I:I))</f>
-        <v>35090</v>
-      </c>
-      <c r="R130" s="33" cm="1">
-        <f t="array" ref="R130">MIN(IF(J:J&gt;0,J:J))</f>
-        <v>8820</v>
-      </c>
-      <c r="S130" s="33" cm="1">
-        <f t="array" ref="S130">MIN(IF(K:K&gt;30000,K:K))</f>
-        <v>49722</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="48">
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="50">
         <v>44748</v>
       </c>
       <c r="B131" s="5">
@@ -12798,8 +12989,8 @@
         <v>55998</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="50"/>
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="52"/>
       <c r="B132" s="5">
         <v>6.3888888888888884E-2</v>
       </c>
@@ -12835,8 +13026,8 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="49"/>
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="51"/>
       <c r="B133" s="5">
         <v>0.87777777777777777</v>
       </c>
@@ -12872,8 +13063,8 @@
         <v>61746</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="48">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="50">
         <v>44750</v>
       </c>
       <c r="B134" s="5">
@@ -12911,8 +13102,8 @@
         <v>49722</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="49"/>
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="51"/>
       <c r="B135" s="5">
         <v>0.86944444444444446</v>
       </c>
@@ -12948,7 +13139,7 @@
         <v>61495</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="39">
         <v>44751</v>
       </c>
@@ -12987,8 +13178,8 @@
         <v>55106</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="48">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="50">
         <v>44752</v>
       </c>
       <c r="B137" s="5">
@@ -13026,8 +13217,8 @@
         <v>64736</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="49"/>
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="51"/>
       <c r="B138" s="5">
         <v>0.7055555555555556</v>
       </c>
@@ -13063,8 +13254,8 @@
         <v>64381</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="48">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="50">
         <v>44753</v>
       </c>
       <c r="B139" s="5">
@@ -13102,8 +13293,8 @@
         <v>68785</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="50"/>
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="52"/>
       <c r="B140" s="5">
         <v>0.93819444444444444</v>
       </c>
@@ -13139,8 +13330,8 @@
         <v>66707</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="49"/>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="51"/>
       <c r="B141" s="5">
         <v>0.96805555555555556</v>
       </c>
@@ -13176,8 +13367,8 @@
         <v>66604</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="48">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="50">
         <v>44755</v>
       </c>
       <c r="B142" s="5">
@@ -13215,8 +13406,8 @@
         <v>56148</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="50"/>
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="52"/>
       <c r="B143" s="5">
         <v>0.83611111111111114</v>
       </c>
@@ -13252,8 +13443,8 @@
         <v>65195</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="49"/>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="51"/>
       <c r="B144" s="5">
         <v>0.85972222222222217</v>
       </c>
@@ -13289,77 +13480,131 @@
         <v>50210</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="39"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="26"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="50">
+        <v>44756</v>
+      </c>
+      <c r="B145" s="5">
+        <v>0.66527777777777775</v>
+      </c>
+      <c r="C145" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="D145" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E145" s="26">
+        <v>97440</v>
+      </c>
+      <c r="F145" s="7">
+        <v>139074</v>
+      </c>
+      <c r="G145" s="7">
+        <v>2</v>
+      </c>
+      <c r="H145" s="7">
+        <v>10</v>
+      </c>
       <c r="I145" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>41634</v>
       </c>
       <c r="J145" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>17640</v>
       </c>
       <c r="K145" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="39"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="26"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
+        <v>59274</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="52"/>
+      <c r="B146" s="5">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="C146" s="5">
+        <v>0.71319444444444446</v>
+      </c>
+      <c r="D146" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E146" s="7">
+        <v>139074</v>
+      </c>
+      <c r="F146" s="7">
+        <v>178317</v>
+      </c>
+      <c r="G146" s="7">
+        <v>1</v>
+      </c>
+      <c r="H146" s="7">
+        <v>14</v>
+      </c>
       <c r="I146" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>39243</v>
       </c>
       <c r="J146" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>20160</v>
       </c>
       <c r="K146" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="39"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="26"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
+        <v>59403</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="52"/>
+      <c r="B147" s="5">
+        <v>0.75763888888888886</v>
+      </c>
+      <c r="C147" s="5">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="D147" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E147" s="26">
+        <v>220594</v>
+      </c>
+      <c r="F147" s="7">
+        <v>260879</v>
+      </c>
+      <c r="G147" s="7">
+        <v>2</v>
+      </c>
+      <c r="H147" s="7">
+        <v>14</v>
+      </c>
       <c r="I147" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>40285</v>
       </c>
       <c r="J147" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>22680</v>
       </c>
       <c r="K147" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="39"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="6"/>
+        <v>62965</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="51"/>
+      <c r="B148" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C148" s="5">
+        <v>0.93611111111111101</v>
+      </c>
+      <c r="D148" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="E148" s="26"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
@@ -13377,77 +13622,131 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="39"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="26"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="50">
+        <v>44757</v>
+      </c>
+      <c r="B149" s="5">
+        <v>0.85138888888888886</v>
+      </c>
+      <c r="C149" s="5">
+        <v>0.87569444444444444</v>
+      </c>
+      <c r="D149" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E149" s="26">
+        <v>7369</v>
+      </c>
+      <c r="F149" s="7">
+        <v>48249</v>
+      </c>
+      <c r="G149" s="7">
+        <v>1</v>
+      </c>
+      <c r="H149" s="7">
+        <v>14</v>
+      </c>
       <c r="I149" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>40880</v>
       </c>
       <c r="J149" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>20160</v>
       </c>
       <c r="K149" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="39"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="26"/>
-      <c r="F150" s="7"/>
+        <v>61040</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="51"/>
+      <c r="B150" s="5">
+        <v>0.90208333333333324</v>
+      </c>
+      <c r="C150" s="5">
+        <v>0.91875000000000007</v>
+      </c>
+      <c r="D150" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E150" s="7">
+        <v>48249</v>
+      </c>
+      <c r="F150" s="7">
+        <v>82723</v>
+      </c>
       <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
+      <c r="H150" s="7">
+        <v>4</v>
+      </c>
       <c r="I150" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>34474</v>
       </c>
       <c r="J150" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>5040</v>
       </c>
       <c r="K150" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="39"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="26"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
+        <v>39514</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="50">
+        <v>44758</v>
+      </c>
+      <c r="B151" s="5">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="C151" s="5">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="D151" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E151" s="26">
+        <v>93450</v>
+      </c>
+      <c r="F151" s="7">
+        <v>133923</v>
+      </c>
+      <c r="G151" s="7">
+        <v>5</v>
+      </c>
+      <c r="H151" s="7">
+        <v>12</v>
+      </c>
       <c r="I151" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>40473</v>
       </c>
       <c r="J151" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>27720</v>
       </c>
       <c r="K151" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="39"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="6"/>
+        <v>68193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="51"/>
+      <c r="B152" s="5">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C152" s="5">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="D152" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="E152" s="26"/>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
@@ -13465,77 +13764,149 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="39"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="26"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153" s="50">
+        <v>44758</v>
+      </c>
+      <c r="B153" s="5">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="C153" s="5">
+        <v>0.74583333333333324</v>
+      </c>
+      <c r="D153" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E153" s="26">
+        <v>87150</v>
+      </c>
+      <c r="F153" s="7">
+        <v>129157</v>
+      </c>
+      <c r="G153" s="7">
+        <v>3</v>
+      </c>
+      <c r="H153" s="7">
+        <v>6</v>
+      </c>
       <c r="I153" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>42007</v>
       </c>
       <c r="J153" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>15120</v>
       </c>
       <c r="K153" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="39"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="26"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
+        <v>57127</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" s="51"/>
+      <c r="B154" s="5">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="C154" s="5">
+        <v>1.0173611111111112</v>
+      </c>
+      <c r="D154" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E154" s="26">
+        <v>228923</v>
+      </c>
+      <c r="F154" s="7">
+        <v>275057</v>
+      </c>
+      <c r="G154" s="7">
+        <v>1</v>
+      </c>
+      <c r="H154" s="7">
+        <v>7</v>
+      </c>
       <c r="I154" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>46134</v>
       </c>
       <c r="J154" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>11340</v>
       </c>
       <c r="K154" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="39"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="26"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
+        <v>57474</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" s="50">
+        <v>44759</v>
+      </c>
+      <c r="B155" s="5">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="C155" s="5">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="D155" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E155" s="26">
+        <v>95847</v>
+      </c>
+      <c r="F155" s="7">
+        <v>136785</v>
+      </c>
+      <c r="G155" s="7">
+        <v>3</v>
+      </c>
+      <c r="H155" s="7">
+        <v>12</v>
+      </c>
       <c r="I155" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>40938</v>
       </c>
       <c r="J155" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>22680</v>
       </c>
       <c r="K155" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="39"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="6"/>
+        <v>63618</v>
+      </c>
+      <c r="M155" s="43" t="str">
+        <f>COUNTIF(D:D,"&gt;0")&amp;"场"</f>
+        <v>156场</v>
+      </c>
+      <c r="N155" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="O155" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="P155" s="69"/>
+      <c r="Q155" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="R155" s="68"/>
+      <c r="S155" s="69"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" s="52"/>
+      <c r="B156" s="5">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="C156" s="5">
+        <v>5.9722222222222225E-2</v>
+      </c>
+      <c r="D156" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="E156" s="26"/>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
@@ -13552,12 +13923,36 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="39"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="6"/>
+      <c r="M156" s="44"/>
+      <c r="N156" s="44"/>
+      <c r="O156" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P156" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q156" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="R156" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="S156" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" s="52"/>
+      <c r="B157" s="5">
+        <v>9.5833333333333326E-2</v>
+      </c>
+      <c r="C157" s="5">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="D157" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="E157" s="26"/>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
@@ -13574,32 +13969,743 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="39"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="26"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="7"/>
+      <c r="M157" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="N157" s="28" cm="1">
+        <f t="array" ref="N157">MIN(IF(D:D&gt;0,D:D))</f>
+        <v>20</v>
+      </c>
+      <c r="O157" s="29" cm="1">
+        <f t="array" ref="O157">MAX(IF(G:G&gt;0,G:G))</f>
+        <v>7</v>
+      </c>
+      <c r="P157" s="29" cm="1">
+        <f t="array" ref="P157">MAX(IF(H:H&gt;0,H:H))</f>
+        <v>18</v>
+      </c>
+      <c r="Q157" s="29" cm="1">
+        <f t="array" ref="Q157">MAX(IF(I:I&gt;0,I:I))</f>
+        <v>46134</v>
+      </c>
+      <c r="R157" s="29" cm="1">
+        <f t="array" ref="R157">MAX(IF(J:J&gt;0,J:J))</f>
+        <v>40320</v>
+      </c>
+      <c r="S157" s="29" cm="1">
+        <f t="array" ref="S157">MAX(IF(K:K&gt;0,K:K))</f>
+        <v>82032</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158" s="51"/>
+      <c r="B158" s="5">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="C158" s="5">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="D158" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E158" s="26">
+        <v>22413</v>
+      </c>
+      <c r="F158" s="7">
+        <v>62194</v>
+      </c>
+      <c r="G158" s="7">
+        <v>3</v>
+      </c>
+      <c r="H158" s="7">
+        <v>9</v>
+      </c>
       <c r="I158" s="7">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>39781</v>
       </c>
       <c r="J158" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="K158" s="7">
         <f t="shared" si="18"/>
+        <v>58681</v>
+      </c>
+      <c r="M158" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N158" s="30">
+        <f>AVERAGEIF(D:D,"&lt;&gt;0")</f>
+        <v>32.615384615384613</v>
+      </c>
+      <c r="O158" s="31">
+        <f>AVERAGEIF(G:G,"&lt;&gt;0")</f>
+        <v>2.7272727272727271</v>
+      </c>
+      <c r="P158" s="31">
+        <f>AVERAGEIF(H:H,"&lt;&gt;0")</f>
+        <v>10.146666666666667</v>
+      </c>
+      <c r="Q158" s="31">
+        <f>AVERAGEIF(I:I,"&lt;&gt;0")</f>
+        <v>40940.496598639453</v>
+      </c>
+      <c r="R158" s="31">
+        <f>AVERAGEIF(J:J,"&lt;&gt;0")</f>
+        <v>19336.8</v>
+      </c>
+      <c r="S158" s="31">
+        <f>AVERAGEIF(K:K,"&gt;30000")</f>
+        <v>60294.78231292517</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159" s="41"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="26"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7">
+        <f t="shared" ref="I159:I186" si="19">IF(SUM(F159-E159)&lt;0,"",SUM(F159-E159))</f>
+        <v>0</v>
+      </c>
+      <c r="J159" s="7">
+        <f t="shared" ref="J159:J186" si="20">IF(SUM(H159*1260+G159*2520)&lt;0,"",SUM(H159*1260+G159*2520))</f>
+        <v>0</v>
+      </c>
+      <c r="K159" s="7">
+        <f t="shared" ref="K159:K186" si="21">SUM(I159,J159)</f>
+        <v>0</v>
+      </c>
+      <c r="M159" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N159" s="32">
+        <f>MAX(D:D)</f>
+        <v>52</v>
+      </c>
+      <c r="O159" s="33" cm="1">
+        <f t="array" ref="O159">MIN(IF(G:G&gt;0,G:G))</f>
+        <v>1</v>
+      </c>
+      <c r="P159" s="33" cm="1">
+        <f t="array" ref="P159">MIN(IF(H:H&gt;0,H:H))</f>
+        <v>3</v>
+      </c>
+      <c r="Q159" s="33" cm="1">
+        <f t="array" ref="Q159">MIN(IF(I:I&gt;0,I:I))</f>
+        <v>34474</v>
+      </c>
+      <c r="R159" s="33" cm="1">
+        <f t="array" ref="R159">MIN(IF(J:J&gt;0,J:J))</f>
+        <v>5040</v>
+      </c>
+      <c r="S159" s="33" cm="1">
+        <f t="array" ref="S159">MIN(IF(K:K&gt;30000,K:K))</f>
+        <v>39514</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160" s="41"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="26"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J160" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K160" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="41"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J161" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K161" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="41"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="26"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J162" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K162" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="41"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="26"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J163" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K163" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="41"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="26"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J164" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K164" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="41"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="26"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J165" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K165" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="41"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="26"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J166" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K166" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="41"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="26"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J167" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K167" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="41"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="26"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J168" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K168" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="41"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="26"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J169" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K169" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="41"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J170" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K170" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="41"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="26"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J171" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K171" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="41"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="26"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J172" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K172" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="41"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="26"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J173" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K173" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="41"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="26"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J174" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K174" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="41"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J175" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K175" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="41"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J176" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K176" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="41"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J177" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K177" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="41"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J178" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K178" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="41"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J179" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K179" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="41"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="26"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J180" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K180" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="41"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="26"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J181" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K181" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="41"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="26"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J182" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K182" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="41"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="26"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J183" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K183" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="41"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="26"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J184" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K184" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="41"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="26"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J185" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K185" s="7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="41"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="26"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J186" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K186" s="7">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="A142:A144"/>
+  <mergeCells count="65">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A68:A70"/>
@@ -13633,7 +14739,7 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A64:A65"/>
-    <mergeCell ref="O126:P126"/>
+    <mergeCell ref="O155:P155"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="A108:A110"/>
@@ -13653,21 +14759,27 @@
     <mergeCell ref="A134:A135"/>
     <mergeCell ref="A131:A133"/>
     <mergeCell ref="A123:A124"/>
+    <mergeCell ref="Q155:S155"/>
+    <mergeCell ref="N155:N156"/>
+    <mergeCell ref="M155:M156"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A155:A158"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A145:A148"/>
     <mergeCell ref="A139:A141"/>
     <mergeCell ref="A137:A138"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="N126:N127"/>
-    <mergeCell ref="M126:M127"/>
-    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A151:A152"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="37" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="39" operator="between">
       <formula>1</formula>
-      <formula>$N$129</formula>
+      <formula>$N$158</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="greaterThan">
-      <formula>$N$129</formula>
+    <cfRule type="cellIs" dxfId="0" priority="40" operator="greaterThan">
+      <formula>$N$158</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
